--- a/INTLINE/data/134/DEUSTATIS/old/Import price index - GP9 codes.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/old/Import price index - GP9 codes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="85">
   <si>
     <t>Index of import prices: Germany, months, product
 classification (GP2009 2-/3-/4-digit codes/special items)</t>
@@ -210,6 +210,9 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>January</t>
   </si>
   <si>
@@ -264,7 +267,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:33:52</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 04:09:39</t>
   </si>
 </sst>
 </file>
@@ -829,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2911">
+  <cellXfs count="2959">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -3769,8 +3772,104 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -9557,6 +9656,54 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -9567,6 +9714,54 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -12490,3021 +12685,3071 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="1467">
+      <c r="A5" t="s" s="1491">
         <v>4</v>
       </c>
-      <c r="B5" s="1468"/>
-      <c r="C5" t="s" s="1469">
+      <c r="B5" s="1492"/>
+      <c r="C5" t="s" s="1493">
         <v>5</v>
       </c>
-      <c r="D5" s="1470"/>
-      <c r="E5" s="1471"/>
-      <c r="F5" s="1472"/>
-      <c r="G5" s="1473"/>
-      <c r="H5" s="1474"/>
-      <c r="I5" s="1475"/>
-      <c r="J5" s="1476"/>
-      <c r="K5" s="1477"/>
-      <c r="L5" s="1478"/>
-      <c r="M5" s="1479"/>
-      <c r="N5" s="1480"/>
-      <c r="O5" t="s" s="1481">
+      <c r="D5" s="1494"/>
+      <c r="E5" s="1495"/>
+      <c r="F5" s="1496"/>
+      <c r="G5" s="1497"/>
+      <c r="H5" s="1498"/>
+      <c r="I5" s="1499"/>
+      <c r="J5" s="1500"/>
+      <c r="K5" s="1501"/>
+      <c r="L5" s="1502"/>
+      <c r="M5" s="1503"/>
+      <c r="N5" s="1504"/>
+      <c r="O5" t="s" s="1505">
         <v>6</v>
       </c>
-      <c r="P5" s="1482"/>
-      <c r="Q5" s="1483"/>
-      <c r="R5" s="1484"/>
-      <c r="S5" s="1485"/>
-      <c r="T5" s="1486"/>
-      <c r="U5" s="1487"/>
-      <c r="V5" s="1488"/>
-      <c r="W5" s="1489"/>
-      <c r="X5" s="1490"/>
-      <c r="Y5" s="1491"/>
-      <c r="Z5" s="1492"/>
-      <c r="AA5" t="s" s="1493">
+      <c r="P5" s="1506"/>
+      <c r="Q5" s="1507"/>
+      <c r="R5" s="1508"/>
+      <c r="S5" s="1509"/>
+      <c r="T5" s="1510"/>
+      <c r="U5" s="1511"/>
+      <c r="V5" s="1512"/>
+      <c r="W5" s="1513"/>
+      <c r="X5" s="1514"/>
+      <c r="Y5" s="1515"/>
+      <c r="Z5" s="1516"/>
+      <c r="AA5" t="s" s="1517">
         <v>7</v>
       </c>
-      <c r="AB5" s="1494"/>
-      <c r="AC5" s="1495"/>
-      <c r="AD5" s="1496"/>
-      <c r="AE5" s="1497"/>
-      <c r="AF5" s="1498"/>
-      <c r="AG5" s="1499"/>
-      <c r="AH5" s="1500"/>
-      <c r="AI5" s="1501"/>
-      <c r="AJ5" s="1502"/>
-      <c r="AK5" s="1503"/>
-      <c r="AL5" s="1504"/>
-      <c r="AM5" t="s" s="1505">
+      <c r="AB5" s="1518"/>
+      <c r="AC5" s="1519"/>
+      <c r="AD5" s="1520"/>
+      <c r="AE5" s="1521"/>
+      <c r="AF5" s="1522"/>
+      <c r="AG5" s="1523"/>
+      <c r="AH5" s="1524"/>
+      <c r="AI5" s="1525"/>
+      <c r="AJ5" s="1526"/>
+      <c r="AK5" s="1527"/>
+      <c r="AL5" s="1528"/>
+      <c r="AM5" t="s" s="1529">
         <v>8</v>
       </c>
-      <c r="AN5" s="1506"/>
-      <c r="AO5" s="1507"/>
-      <c r="AP5" s="1508"/>
-      <c r="AQ5" s="1509"/>
-      <c r="AR5" s="1510"/>
-      <c r="AS5" s="1511"/>
-      <c r="AT5" s="1512"/>
-      <c r="AU5" s="1513"/>
-      <c r="AV5" s="1514"/>
-      <c r="AW5" s="1515"/>
-      <c r="AX5" s="1516"/>
-      <c r="AY5" t="s" s="1517">
+      <c r="AN5" s="1530"/>
+      <c r="AO5" s="1531"/>
+      <c r="AP5" s="1532"/>
+      <c r="AQ5" s="1533"/>
+      <c r="AR5" s="1534"/>
+      <c r="AS5" s="1535"/>
+      <c r="AT5" s="1536"/>
+      <c r="AU5" s="1537"/>
+      <c r="AV5" s="1538"/>
+      <c r="AW5" s="1539"/>
+      <c r="AX5" s="1540"/>
+      <c r="AY5" t="s" s="1541">
         <v>9</v>
       </c>
-      <c r="AZ5" s="1518"/>
-      <c r="BA5" s="1519"/>
-      <c r="BB5" s="1520"/>
-      <c r="BC5" s="1521"/>
-      <c r="BD5" s="1522"/>
-      <c r="BE5" s="1523"/>
-      <c r="BF5" s="1524"/>
-      <c r="BG5" s="1525"/>
-      <c r="BH5" s="1526"/>
-      <c r="BI5" s="1527"/>
-      <c r="BJ5" s="1528"/>
-      <c r="BK5" t="s" s="1529">
+      <c r="AZ5" s="1542"/>
+      <c r="BA5" s="1543"/>
+      <c r="BB5" s="1544"/>
+      <c r="BC5" s="1545"/>
+      <c r="BD5" s="1546"/>
+      <c r="BE5" s="1547"/>
+      <c r="BF5" s="1548"/>
+      <c r="BG5" s="1549"/>
+      <c r="BH5" s="1550"/>
+      <c r="BI5" s="1551"/>
+      <c r="BJ5" s="1552"/>
+      <c r="BK5" t="s" s="1553">
         <v>10</v>
       </c>
-      <c r="BL5" s="1530"/>
-      <c r="BM5" s="1531"/>
-      <c r="BN5" s="1532"/>
-      <c r="BO5" s="1533"/>
-      <c r="BP5" s="1534"/>
-      <c r="BQ5" s="1535"/>
-      <c r="BR5" s="1536"/>
-      <c r="BS5" s="1537"/>
-      <c r="BT5" s="1538"/>
-      <c r="BU5" s="1539"/>
-      <c r="BV5" s="1540"/>
-      <c r="BW5" t="s" s="1541">
+      <c r="BL5" s="1554"/>
+      <c r="BM5" s="1555"/>
+      <c r="BN5" s="1556"/>
+      <c r="BO5" s="1557"/>
+      <c r="BP5" s="1558"/>
+      <c r="BQ5" s="1559"/>
+      <c r="BR5" s="1560"/>
+      <c r="BS5" s="1561"/>
+      <c r="BT5" s="1562"/>
+      <c r="BU5" s="1563"/>
+      <c r="BV5" s="1564"/>
+      <c r="BW5" t="s" s="1565">
         <v>11</v>
       </c>
-      <c r="BX5" s="1542"/>
-      <c r="BY5" s="1543"/>
-      <c r="BZ5" s="1544"/>
-      <c r="CA5" s="1545"/>
-      <c r="CB5" s="1546"/>
-      <c r="CC5" s="1547"/>
-      <c r="CD5" s="1548"/>
-      <c r="CE5" s="1549"/>
-      <c r="CF5" s="1550"/>
-      <c r="CG5" s="1551"/>
-      <c r="CH5" s="1552"/>
-      <c r="CI5" t="s" s="1553">
+      <c r="BX5" s="1566"/>
+      <c r="BY5" s="1567"/>
+      <c r="BZ5" s="1568"/>
+      <c r="CA5" s="1569"/>
+      <c r="CB5" s="1570"/>
+      <c r="CC5" s="1571"/>
+      <c r="CD5" s="1572"/>
+      <c r="CE5" s="1573"/>
+      <c r="CF5" s="1574"/>
+      <c r="CG5" s="1575"/>
+      <c r="CH5" s="1576"/>
+      <c r="CI5" t="s" s="1577">
         <v>12</v>
       </c>
-      <c r="CJ5" s="1554"/>
-      <c r="CK5" s="1555"/>
-      <c r="CL5" s="1556"/>
-      <c r="CM5" s="1557"/>
-      <c r="CN5" s="1558"/>
-      <c r="CO5" s="1559"/>
-      <c r="CP5" s="1560"/>
-      <c r="CQ5" s="1561"/>
-      <c r="CR5" s="1562"/>
-      <c r="CS5" s="1563"/>
-      <c r="CT5" s="1564"/>
-      <c r="CU5" t="s" s="1565">
+      <c r="CJ5" s="1578"/>
+      <c r="CK5" s="1579"/>
+      <c r="CL5" s="1580"/>
+      <c r="CM5" s="1581"/>
+      <c r="CN5" s="1582"/>
+      <c r="CO5" s="1583"/>
+      <c r="CP5" s="1584"/>
+      <c r="CQ5" s="1585"/>
+      <c r="CR5" s="1586"/>
+      <c r="CS5" s="1587"/>
+      <c r="CT5" s="1588"/>
+      <c r="CU5" t="s" s="1589">
         <v>13</v>
       </c>
-      <c r="CV5" s="1566"/>
-      <c r="CW5" s="1567"/>
-      <c r="CX5" s="1568"/>
-      <c r="CY5" s="1569"/>
-      <c r="CZ5" s="1570"/>
-      <c r="DA5" s="1571"/>
-      <c r="DB5" s="1572"/>
-      <c r="DC5" s="1573"/>
-      <c r="DD5" s="1574"/>
-      <c r="DE5" s="1575"/>
-      <c r="DF5" s="1576"/>
-      <c r="DG5" t="s" s="1577">
+      <c r="CV5" s="1590"/>
+      <c r="CW5" s="1591"/>
+      <c r="CX5" s="1592"/>
+      <c r="CY5" s="1593"/>
+      <c r="CZ5" s="1594"/>
+      <c r="DA5" s="1595"/>
+      <c r="DB5" s="1596"/>
+      <c r="DC5" s="1597"/>
+      <c r="DD5" s="1598"/>
+      <c r="DE5" s="1599"/>
+      <c r="DF5" s="1600"/>
+      <c r="DG5" t="s" s="1601">
         <v>14</v>
       </c>
-      <c r="DH5" s="1578"/>
-      <c r="DI5" s="1579"/>
-      <c r="DJ5" s="1580"/>
-      <c r="DK5" s="1581"/>
-      <c r="DL5" s="1582"/>
-      <c r="DM5" s="1583"/>
-      <c r="DN5" s="1584"/>
-      <c r="DO5" s="1585"/>
-      <c r="DP5" s="1586"/>
-      <c r="DQ5" s="1587"/>
-      <c r="DR5" s="1588"/>
-      <c r="DS5" t="s" s="1589">
+      <c r="DH5" s="1602"/>
+      <c r="DI5" s="1603"/>
+      <c r="DJ5" s="1604"/>
+      <c r="DK5" s="1605"/>
+      <c r="DL5" s="1606"/>
+      <c r="DM5" s="1607"/>
+      <c r="DN5" s="1608"/>
+      <c r="DO5" s="1609"/>
+      <c r="DP5" s="1610"/>
+      <c r="DQ5" s="1611"/>
+      <c r="DR5" s="1612"/>
+      <c r="DS5" t="s" s="1613">
         <v>15</v>
       </c>
-      <c r="DT5" s="1590"/>
-      <c r="DU5" s="1591"/>
-      <c r="DV5" s="1592"/>
-      <c r="DW5" s="1593"/>
-      <c r="DX5" s="1594"/>
-      <c r="DY5" s="1595"/>
-      <c r="DZ5" s="1596"/>
-      <c r="EA5" s="1597"/>
-      <c r="EB5" s="1598"/>
-      <c r="EC5" s="1599"/>
-      <c r="ED5" s="1600"/>
-      <c r="EE5" t="s" s="1601">
+      <c r="DT5" s="1614"/>
+      <c r="DU5" s="1615"/>
+      <c r="DV5" s="1616"/>
+      <c r="DW5" s="1617"/>
+      <c r="DX5" s="1618"/>
+      <c r="DY5" s="1619"/>
+      <c r="DZ5" s="1620"/>
+      <c r="EA5" s="1621"/>
+      <c r="EB5" s="1622"/>
+      <c r="EC5" s="1623"/>
+      <c r="ED5" s="1624"/>
+      <c r="EE5" t="s" s="1625">
         <v>16</v>
       </c>
-      <c r="EF5" s="1602"/>
-      <c r="EG5" s="1603"/>
-      <c r="EH5" s="1604"/>
-      <c r="EI5" s="1605"/>
-      <c r="EJ5" s="1606"/>
-      <c r="EK5" s="1607"/>
-      <c r="EL5" s="1608"/>
-      <c r="EM5" s="1609"/>
-      <c r="EN5" s="1610"/>
-      <c r="EO5" s="1611"/>
-      <c r="EP5" s="1612"/>
-      <c r="EQ5" t="s" s="1613">
+      <c r="EF5" s="1626"/>
+      <c r="EG5" s="1627"/>
+      <c r="EH5" s="1628"/>
+      <c r="EI5" s="1629"/>
+      <c r="EJ5" s="1630"/>
+      <c r="EK5" s="1631"/>
+      <c r="EL5" s="1632"/>
+      <c r="EM5" s="1633"/>
+      <c r="EN5" s="1634"/>
+      <c r="EO5" s="1635"/>
+      <c r="EP5" s="1636"/>
+      <c r="EQ5" t="s" s="1637">
         <v>17</v>
       </c>
-      <c r="ER5" s="1614"/>
-      <c r="ES5" s="1615"/>
-      <c r="ET5" s="1616"/>
-      <c r="EU5" s="1617"/>
-      <c r="EV5" s="1618"/>
-      <c r="EW5" s="1619"/>
-      <c r="EX5" s="1620"/>
-      <c r="EY5" s="1621"/>
-      <c r="EZ5" s="1622"/>
-      <c r="FA5" s="1623"/>
-      <c r="FB5" s="1624"/>
-      <c r="FC5" t="s" s="1625">
+      <c r="ER5" s="1638"/>
+      <c r="ES5" s="1639"/>
+      <c r="ET5" s="1640"/>
+      <c r="EU5" s="1641"/>
+      <c r="EV5" s="1642"/>
+      <c r="EW5" s="1643"/>
+      <c r="EX5" s="1644"/>
+      <c r="EY5" s="1645"/>
+      <c r="EZ5" s="1646"/>
+      <c r="FA5" s="1647"/>
+      <c r="FB5" s="1648"/>
+      <c r="FC5" t="s" s="1649">
         <v>18</v>
       </c>
-      <c r="FD5" s="1626"/>
-      <c r="FE5" s="1627"/>
-      <c r="FF5" s="1628"/>
-      <c r="FG5" s="1629"/>
-      <c r="FH5" s="1630"/>
-      <c r="FI5" s="1631"/>
-      <c r="FJ5" s="1632"/>
-      <c r="FK5" s="1633"/>
-      <c r="FL5" s="1634"/>
-      <c r="FM5" s="1635"/>
-      <c r="FN5" s="1636"/>
-      <c r="FO5" t="s" s="1637">
+      <c r="FD5" s="1650"/>
+      <c r="FE5" s="1651"/>
+      <c r="FF5" s="1652"/>
+      <c r="FG5" s="1653"/>
+      <c r="FH5" s="1654"/>
+      <c r="FI5" s="1655"/>
+      <c r="FJ5" s="1656"/>
+      <c r="FK5" s="1657"/>
+      <c r="FL5" s="1658"/>
+      <c r="FM5" s="1659"/>
+      <c r="FN5" s="1660"/>
+      <c r="FO5" t="s" s="1661">
         <v>19</v>
       </c>
-      <c r="FP5" s="1638"/>
-      <c r="FQ5" s="1639"/>
-      <c r="FR5" s="1640"/>
-      <c r="FS5" s="1641"/>
-      <c r="FT5" s="1642"/>
-      <c r="FU5" s="1643"/>
-      <c r="FV5" s="1644"/>
-      <c r="FW5" s="1645"/>
-      <c r="FX5" s="1646"/>
-      <c r="FY5" s="1647"/>
-      <c r="FZ5" s="1648"/>
-      <c r="GA5" t="s" s="1649">
+      <c r="FP5" s="1662"/>
+      <c r="FQ5" s="1663"/>
+      <c r="FR5" s="1664"/>
+      <c r="FS5" s="1665"/>
+      <c r="FT5" s="1666"/>
+      <c r="FU5" s="1667"/>
+      <c r="FV5" s="1668"/>
+      <c r="FW5" s="1669"/>
+      <c r="FX5" s="1670"/>
+      <c r="FY5" s="1671"/>
+      <c r="FZ5" s="1672"/>
+      <c r="GA5" t="s" s="1673">
         <v>20</v>
       </c>
-      <c r="GB5" s="1650"/>
-      <c r="GC5" s="1651"/>
-      <c r="GD5" s="1652"/>
-      <c r="GE5" s="1653"/>
-      <c r="GF5" s="1654"/>
-      <c r="GG5" s="1655"/>
-      <c r="GH5" s="1656"/>
-      <c r="GI5" s="1657"/>
-      <c r="GJ5" s="1658"/>
-      <c r="GK5" s="1659"/>
-      <c r="GL5" s="1660"/>
-      <c r="GM5" t="s" s="1661">
+      <c r="GB5" s="1674"/>
+      <c r="GC5" s="1675"/>
+      <c r="GD5" s="1676"/>
+      <c r="GE5" s="1677"/>
+      <c r="GF5" s="1678"/>
+      <c r="GG5" s="1679"/>
+      <c r="GH5" s="1680"/>
+      <c r="GI5" s="1681"/>
+      <c r="GJ5" s="1682"/>
+      <c r="GK5" s="1683"/>
+      <c r="GL5" s="1684"/>
+      <c r="GM5" t="s" s="1685">
         <v>21</v>
       </c>
-      <c r="GN5" s="1662"/>
-      <c r="GO5" s="1663"/>
-      <c r="GP5" s="1664"/>
-      <c r="GQ5" s="1665"/>
-      <c r="GR5" s="1666"/>
-      <c r="GS5" s="1667"/>
-      <c r="GT5" s="1668"/>
-      <c r="GU5" s="1669"/>
-      <c r="GV5" s="1670"/>
-      <c r="GW5" s="1671"/>
-      <c r="GX5" s="1672"/>
-      <c r="GY5" t="s" s="1673">
+      <c r="GN5" s="1686"/>
+      <c r="GO5" s="1687"/>
+      <c r="GP5" s="1688"/>
+      <c r="GQ5" s="1689"/>
+      <c r="GR5" s="1690"/>
+      <c r="GS5" s="1691"/>
+      <c r="GT5" s="1692"/>
+      <c r="GU5" s="1693"/>
+      <c r="GV5" s="1694"/>
+      <c r="GW5" s="1695"/>
+      <c r="GX5" s="1696"/>
+      <c r="GY5" t="s" s="1697">
         <v>22</v>
       </c>
-      <c r="GZ5" s="1674"/>
-      <c r="HA5" s="1675"/>
-      <c r="HB5" s="1676"/>
-      <c r="HC5" s="1677"/>
-      <c r="HD5" s="1678"/>
-      <c r="HE5" s="1679"/>
-      <c r="HF5" s="1680"/>
-      <c r="HG5" s="1681"/>
-      <c r="HH5" s="1682"/>
-      <c r="HI5" s="1683"/>
-      <c r="HJ5" s="1684"/>
-      <c r="HK5" t="s" s="1685">
+      <c r="GZ5" s="1698"/>
+      <c r="HA5" s="1699"/>
+      <c r="HB5" s="1700"/>
+      <c r="HC5" s="1701"/>
+      <c r="HD5" s="1702"/>
+      <c r="HE5" s="1703"/>
+      <c r="HF5" s="1704"/>
+      <c r="HG5" s="1705"/>
+      <c r="HH5" s="1706"/>
+      <c r="HI5" s="1707"/>
+      <c r="HJ5" s="1708"/>
+      <c r="HK5" t="s" s="1709">
         <v>23</v>
       </c>
-      <c r="HL5" s="1686"/>
-      <c r="HM5" s="1687"/>
-      <c r="HN5" s="1688"/>
-      <c r="HO5" s="1689"/>
-      <c r="HP5" s="1690"/>
-      <c r="HQ5" s="1691"/>
-      <c r="HR5" s="1692"/>
-      <c r="HS5" s="1693"/>
-      <c r="HT5" s="1694"/>
-      <c r="HU5" s="1695"/>
-      <c r="HV5" s="1696"/>
-      <c r="HW5" t="s" s="1697">
+      <c r="HL5" s="1710"/>
+      <c r="HM5" s="1711"/>
+      <c r="HN5" s="1712"/>
+      <c r="HO5" s="1713"/>
+      <c r="HP5" s="1714"/>
+      <c r="HQ5" s="1715"/>
+      <c r="HR5" s="1716"/>
+      <c r="HS5" s="1717"/>
+      <c r="HT5" s="1718"/>
+      <c r="HU5" s="1719"/>
+      <c r="HV5" s="1720"/>
+      <c r="HW5" t="s" s="1721">
         <v>24</v>
       </c>
-      <c r="HX5" s="1698"/>
-      <c r="HY5" s="1699"/>
-      <c r="HZ5" s="1700"/>
-      <c r="IA5" s="1701"/>
-      <c r="IB5" s="1702"/>
-      <c r="IC5" s="1703"/>
-      <c r="ID5" s="1704"/>
-      <c r="IE5" s="1705"/>
-      <c r="IF5" s="1706"/>
-      <c r="IG5" s="1707"/>
-      <c r="IH5" s="1708"/>
-      <c r="II5" t="s" s="1709">
+      <c r="HX5" s="1722"/>
+      <c r="HY5" s="1723"/>
+      <c r="HZ5" s="1724"/>
+      <c r="IA5" s="1725"/>
+      <c r="IB5" s="1726"/>
+      <c r="IC5" s="1727"/>
+      <c r="ID5" s="1728"/>
+      <c r="IE5" s="1729"/>
+      <c r="IF5" s="1730"/>
+      <c r="IG5" s="1731"/>
+      <c r="IH5" s="1732"/>
+      <c r="II5" t="s" s="1733">
         <v>25</v>
       </c>
-      <c r="IJ5" s="1710"/>
-      <c r="IK5" s="1711"/>
-      <c r="IL5" s="1712"/>
-      <c r="IM5" s="1713"/>
-      <c r="IN5" s="1714"/>
-      <c r="IO5" s="1715"/>
-      <c r="IP5" s="1716"/>
-      <c r="IQ5" s="1717"/>
-      <c r="IR5" s="1718"/>
-      <c r="IS5" s="1719"/>
-      <c r="IT5" s="1720"/>
-      <c r="IU5" t="s" s="1721">
+      <c r="IJ5" s="1734"/>
+      <c r="IK5" s="1735"/>
+      <c r="IL5" s="1736"/>
+      <c r="IM5" s="1737"/>
+      <c r="IN5" s="1738"/>
+      <c r="IO5" s="1739"/>
+      <c r="IP5" s="1740"/>
+      <c r="IQ5" s="1741"/>
+      <c r="IR5" s="1742"/>
+      <c r="IS5" s="1743"/>
+      <c r="IT5" s="1744"/>
+      <c r="IU5" t="s" s="1745">
         <v>26</v>
       </c>
-      <c r="IV5" s="1722"/>
-      <c r="IW5" s="1723"/>
-      <c r="IX5" s="1724"/>
-      <c r="IY5" s="1725"/>
-      <c r="IZ5" s="1726"/>
-      <c r="JA5" s="1727"/>
-      <c r="JB5" s="1728"/>
-      <c r="JC5" s="1729"/>
-      <c r="JD5" s="1730"/>
-      <c r="JE5" s="1731"/>
-      <c r="JF5" s="1732"/>
-      <c r="JG5" t="s" s="1733">
+      <c r="IV5" s="1746"/>
+      <c r="IW5" s="1747"/>
+      <c r="IX5" s="1748"/>
+      <c r="IY5" s="1749"/>
+      <c r="IZ5" s="1750"/>
+      <c r="JA5" s="1751"/>
+      <c r="JB5" s="1752"/>
+      <c r="JC5" s="1753"/>
+      <c r="JD5" s="1754"/>
+      <c r="JE5" s="1755"/>
+      <c r="JF5" s="1756"/>
+      <c r="JG5" t="s" s="1757">
         <v>27</v>
       </c>
-      <c r="JH5" s="1734"/>
-      <c r="JI5" s="1735"/>
-      <c r="JJ5" s="1736"/>
-      <c r="JK5" s="1737"/>
-      <c r="JL5" s="1738"/>
-      <c r="JM5" s="1739"/>
-      <c r="JN5" s="1740"/>
-      <c r="JO5" s="1741"/>
-      <c r="JP5" s="1742"/>
-      <c r="JQ5" s="1743"/>
-      <c r="JR5" s="1744"/>
-      <c r="JS5" t="s" s="1745">
+      <c r="JH5" s="1758"/>
+      <c r="JI5" s="1759"/>
+      <c r="JJ5" s="1760"/>
+      <c r="JK5" s="1761"/>
+      <c r="JL5" s="1762"/>
+      <c r="JM5" s="1763"/>
+      <c r="JN5" s="1764"/>
+      <c r="JO5" s="1765"/>
+      <c r="JP5" s="1766"/>
+      <c r="JQ5" s="1767"/>
+      <c r="JR5" s="1768"/>
+      <c r="JS5" t="s" s="1769">
         <v>28</v>
       </c>
-      <c r="JT5" s="1746"/>
-      <c r="JU5" s="1747"/>
-      <c r="JV5" s="1748"/>
-      <c r="JW5" s="1749"/>
-      <c r="JX5" s="1750"/>
-      <c r="JY5" s="1751"/>
-      <c r="JZ5" s="1752"/>
-      <c r="KA5" s="1753"/>
-      <c r="KB5" s="1754"/>
-      <c r="KC5" s="1755"/>
-      <c r="KD5" s="1756"/>
-      <c r="KE5" t="s" s="1757">
+      <c r="JT5" s="1770"/>
+      <c r="JU5" s="1771"/>
+      <c r="JV5" s="1772"/>
+      <c r="JW5" s="1773"/>
+      <c r="JX5" s="1774"/>
+      <c r="JY5" s="1775"/>
+      <c r="JZ5" s="1776"/>
+      <c r="KA5" s="1777"/>
+      <c r="KB5" s="1778"/>
+      <c r="KC5" s="1779"/>
+      <c r="KD5" s="1780"/>
+      <c r="KE5" t="s" s="1781">
         <v>29</v>
       </c>
-      <c r="KF5" s="1758"/>
-      <c r="KG5" s="1759"/>
-      <c r="KH5" s="1760"/>
-      <c r="KI5" s="1761"/>
-      <c r="KJ5" s="1762"/>
-      <c r="KK5" s="1763"/>
-      <c r="KL5" s="1764"/>
-      <c r="KM5" s="1765"/>
-      <c r="KN5" s="1766"/>
-      <c r="KO5" s="1767"/>
-      <c r="KP5" s="1768"/>
-      <c r="KQ5" t="s" s="1769">
+      <c r="KF5" s="1782"/>
+      <c r="KG5" s="1783"/>
+      <c r="KH5" s="1784"/>
+      <c r="KI5" s="1785"/>
+      <c r="KJ5" s="1786"/>
+      <c r="KK5" s="1787"/>
+      <c r="KL5" s="1788"/>
+      <c r="KM5" s="1789"/>
+      <c r="KN5" s="1790"/>
+      <c r="KO5" s="1791"/>
+      <c r="KP5" s="1792"/>
+      <c r="KQ5" t="s" s="1793">
         <v>30</v>
       </c>
-      <c r="KR5" s="1770"/>
-      <c r="KS5" s="1771"/>
-      <c r="KT5" s="1772"/>
-      <c r="KU5" s="1773"/>
-      <c r="KV5" s="1774"/>
-      <c r="KW5" s="1775"/>
-      <c r="KX5" s="1776"/>
-      <c r="KY5" s="1777"/>
-      <c r="KZ5" s="1778"/>
-      <c r="LA5" s="1779"/>
-      <c r="LB5" s="1780"/>
-      <c r="LC5" t="s" s="1781">
+      <c r="KR5" s="1794"/>
+      <c r="KS5" s="1795"/>
+      <c r="KT5" s="1796"/>
+      <c r="KU5" s="1797"/>
+      <c r="KV5" s="1798"/>
+      <c r="KW5" s="1799"/>
+      <c r="KX5" s="1800"/>
+      <c r="KY5" s="1801"/>
+      <c r="KZ5" s="1802"/>
+      <c r="LA5" s="1803"/>
+      <c r="LB5" s="1804"/>
+      <c r="LC5" t="s" s="1805">
         <v>31</v>
       </c>
-      <c r="LD5" s="1782"/>
-      <c r="LE5" s="1783"/>
-      <c r="LF5" s="1784"/>
-      <c r="LG5" s="1785"/>
-      <c r="LH5" s="1786"/>
-      <c r="LI5" s="1787"/>
-      <c r="LJ5" s="1788"/>
-      <c r="LK5" s="1789"/>
-      <c r="LL5" s="1790"/>
-      <c r="LM5" s="1791"/>
-      <c r="LN5" s="1792"/>
-      <c r="LO5" t="s" s="1793">
+      <c r="LD5" s="1806"/>
+      <c r="LE5" s="1807"/>
+      <c r="LF5" s="1808"/>
+      <c r="LG5" s="1809"/>
+      <c r="LH5" s="1810"/>
+      <c r="LI5" s="1811"/>
+      <c r="LJ5" s="1812"/>
+      <c r="LK5" s="1813"/>
+      <c r="LL5" s="1814"/>
+      <c r="LM5" s="1815"/>
+      <c r="LN5" s="1816"/>
+      <c r="LO5" t="s" s="1817">
         <v>32</v>
       </c>
-      <c r="LP5" s="1794"/>
-      <c r="LQ5" s="1795"/>
-      <c r="LR5" s="1796"/>
-      <c r="LS5" s="1797"/>
-      <c r="LT5" s="1798"/>
-      <c r="LU5" s="1799"/>
-      <c r="LV5" s="1800"/>
-      <c r="LW5" s="1801"/>
-      <c r="LX5" s="1802"/>
-      <c r="LY5" s="1803"/>
-      <c r="LZ5" s="1804"/>
-      <c r="MA5" t="s" s="1805">
+      <c r="LP5" s="1818"/>
+      <c r="LQ5" s="1819"/>
+      <c r="LR5" s="1820"/>
+      <c r="LS5" s="1821"/>
+      <c r="LT5" s="1822"/>
+      <c r="LU5" s="1823"/>
+      <c r="LV5" s="1824"/>
+      <c r="LW5" s="1825"/>
+      <c r="LX5" s="1826"/>
+      <c r="LY5" s="1827"/>
+      <c r="LZ5" s="1828"/>
+      <c r="MA5" t="s" s="1829">
         <v>33</v>
       </c>
-      <c r="MB5" s="1806"/>
-      <c r="MC5" s="1807"/>
-      <c r="MD5" s="1808"/>
-      <c r="ME5" s="1809"/>
-      <c r="MF5" s="1810"/>
-      <c r="MG5" s="1811"/>
-      <c r="MH5" s="1812"/>
-      <c r="MI5" s="1813"/>
-      <c r="MJ5" s="1814"/>
-      <c r="MK5" s="1815"/>
-      <c r="ML5" s="1816"/>
-      <c r="MM5" t="s" s="1817">
+      <c r="MB5" s="1830"/>
+      <c r="MC5" s="1831"/>
+      <c r="MD5" s="1832"/>
+      <c r="ME5" s="1833"/>
+      <c r="MF5" s="1834"/>
+      <c r="MG5" s="1835"/>
+      <c r="MH5" s="1836"/>
+      <c r="MI5" s="1837"/>
+      <c r="MJ5" s="1838"/>
+      <c r="MK5" s="1839"/>
+      <c r="ML5" s="1840"/>
+      <c r="MM5" t="s" s="1841">
         <v>34</v>
       </c>
-      <c r="MN5" s="1818"/>
-      <c r="MO5" s="1819"/>
-      <c r="MP5" s="1820"/>
-      <c r="MQ5" s="1821"/>
-      <c r="MR5" s="1822"/>
-      <c r="MS5" s="1823"/>
-      <c r="MT5" s="1824"/>
-      <c r="MU5" s="1825"/>
-      <c r="MV5" s="1826"/>
-      <c r="MW5" s="1827"/>
-      <c r="MX5" s="1828"/>
-      <c r="MY5" t="s" s="1829">
+      <c r="MN5" s="1842"/>
+      <c r="MO5" s="1843"/>
+      <c r="MP5" s="1844"/>
+      <c r="MQ5" s="1845"/>
+      <c r="MR5" s="1846"/>
+      <c r="MS5" s="1847"/>
+      <c r="MT5" s="1848"/>
+      <c r="MU5" s="1849"/>
+      <c r="MV5" s="1850"/>
+      <c r="MW5" s="1851"/>
+      <c r="MX5" s="1852"/>
+      <c r="MY5" t="s" s="1853">
         <v>35</v>
       </c>
-      <c r="MZ5" s="1830"/>
-      <c r="NA5" s="1831"/>
-      <c r="NB5" s="1832"/>
-      <c r="NC5" s="1833"/>
-      <c r="ND5" s="1834"/>
-      <c r="NE5" s="1835"/>
-      <c r="NF5" s="1836"/>
-      <c r="NG5" s="1837"/>
-      <c r="NH5" s="1838"/>
-      <c r="NI5" s="1839"/>
-      <c r="NJ5" s="1840"/>
-      <c r="NK5" t="s" s="1841">
+      <c r="MZ5" s="1854"/>
+      <c r="NA5" s="1855"/>
+      <c r="NB5" s="1856"/>
+      <c r="NC5" s="1857"/>
+      <c r="ND5" s="1858"/>
+      <c r="NE5" s="1859"/>
+      <c r="NF5" s="1860"/>
+      <c r="NG5" s="1861"/>
+      <c r="NH5" s="1862"/>
+      <c r="NI5" s="1863"/>
+      <c r="NJ5" s="1864"/>
+      <c r="NK5" t="s" s="1865">
         <v>36</v>
       </c>
-      <c r="NL5" s="1842"/>
-      <c r="NM5" s="1843"/>
-      <c r="NN5" s="1844"/>
-      <c r="NO5" s="1845"/>
-      <c r="NP5" s="1846"/>
-      <c r="NQ5" s="1847"/>
-      <c r="NR5" s="1848"/>
-      <c r="NS5" s="1849"/>
-      <c r="NT5" s="1850"/>
-      <c r="NU5" s="1851"/>
-      <c r="NV5" s="1852"/>
-      <c r="NW5" t="s" s="1853">
+      <c r="NL5" s="1866"/>
+      <c r="NM5" s="1867"/>
+      <c r="NN5" s="1868"/>
+      <c r="NO5" s="1869"/>
+      <c r="NP5" s="1870"/>
+      <c r="NQ5" s="1871"/>
+      <c r="NR5" s="1872"/>
+      <c r="NS5" s="1873"/>
+      <c r="NT5" s="1874"/>
+      <c r="NU5" s="1875"/>
+      <c r="NV5" s="1876"/>
+      <c r="NW5" t="s" s="1877">
         <v>37</v>
       </c>
-      <c r="NX5" s="1854"/>
-      <c r="NY5" s="1855"/>
-      <c r="NZ5" s="1856"/>
-      <c r="OA5" s="1857"/>
-      <c r="OB5" s="1858"/>
-      <c r="OC5" s="1859"/>
-      <c r="OD5" s="1860"/>
-      <c r="OE5" s="1861"/>
-      <c r="OF5" s="1862"/>
-      <c r="OG5" s="1863"/>
-      <c r="OH5" s="1864"/>
-      <c r="OI5" t="s" s="1865">
+      <c r="NX5" s="1878"/>
+      <c r="NY5" s="1879"/>
+      <c r="NZ5" s="1880"/>
+      <c r="OA5" s="1881"/>
+      <c r="OB5" s="1882"/>
+      <c r="OC5" s="1883"/>
+      <c r="OD5" s="1884"/>
+      <c r="OE5" s="1885"/>
+      <c r="OF5" s="1886"/>
+      <c r="OG5" s="1887"/>
+      <c r="OH5" s="1888"/>
+      <c r="OI5" t="s" s="1889">
         <v>38</v>
       </c>
-      <c r="OJ5" s="1866"/>
-      <c r="OK5" s="1867"/>
-      <c r="OL5" s="1868"/>
-      <c r="OM5" s="1869"/>
-      <c r="ON5" s="1870"/>
-      <c r="OO5" s="1871"/>
-      <c r="OP5" s="1872"/>
-      <c r="OQ5" s="1873"/>
-      <c r="OR5" s="1874"/>
-      <c r="OS5" s="1875"/>
-      <c r="OT5" s="1876"/>
-      <c r="OU5" t="s" s="1877">
+      <c r="OJ5" s="1890"/>
+      <c r="OK5" s="1891"/>
+      <c r="OL5" s="1892"/>
+      <c r="OM5" s="1893"/>
+      <c r="ON5" s="1894"/>
+      <c r="OO5" s="1895"/>
+      <c r="OP5" s="1896"/>
+      <c r="OQ5" s="1897"/>
+      <c r="OR5" s="1898"/>
+      <c r="OS5" s="1899"/>
+      <c r="OT5" s="1900"/>
+      <c r="OU5" t="s" s="1901">
         <v>39</v>
       </c>
-      <c r="OV5" s="1878"/>
-      <c r="OW5" s="1879"/>
-      <c r="OX5" s="1880"/>
-      <c r="OY5" s="1881"/>
-      <c r="OZ5" s="1882"/>
-      <c r="PA5" s="1883"/>
-      <c r="PB5" s="1884"/>
-      <c r="PC5" s="1885"/>
-      <c r="PD5" s="1886"/>
-      <c r="PE5" s="1887"/>
-      <c r="PF5" s="1888"/>
-      <c r="PG5" t="s" s="1889">
+      <c r="OV5" s="1902"/>
+      <c r="OW5" s="1903"/>
+      <c r="OX5" s="1904"/>
+      <c r="OY5" s="1905"/>
+      <c r="OZ5" s="1906"/>
+      <c r="PA5" s="1907"/>
+      <c r="PB5" s="1908"/>
+      <c r="PC5" s="1909"/>
+      <c r="PD5" s="1910"/>
+      <c r="PE5" s="1911"/>
+      <c r="PF5" s="1912"/>
+      <c r="PG5" t="s" s="1913">
         <v>40</v>
       </c>
-      <c r="PH5" s="1890"/>
-      <c r="PI5" s="1891"/>
-      <c r="PJ5" s="1892"/>
-      <c r="PK5" s="1893"/>
-      <c r="PL5" s="1894"/>
-      <c r="PM5" s="1895"/>
-      <c r="PN5" s="1896"/>
-      <c r="PO5" s="1897"/>
-      <c r="PP5" s="1898"/>
-      <c r="PQ5" s="1899"/>
-      <c r="PR5" s="1900"/>
-      <c r="PS5" t="s" s="1901">
+      <c r="PH5" s="1914"/>
+      <c r="PI5" s="1915"/>
+      <c r="PJ5" s="1916"/>
+      <c r="PK5" s="1917"/>
+      <c r="PL5" s="1918"/>
+      <c r="PM5" s="1919"/>
+      <c r="PN5" s="1920"/>
+      <c r="PO5" s="1921"/>
+      <c r="PP5" s="1922"/>
+      <c r="PQ5" s="1923"/>
+      <c r="PR5" s="1924"/>
+      <c r="PS5" t="s" s="1925">
         <v>41</v>
       </c>
-      <c r="PT5" s="1902"/>
-      <c r="PU5" s="1903"/>
-      <c r="PV5" s="1904"/>
-      <c r="PW5" s="1905"/>
-      <c r="PX5" s="1906"/>
-      <c r="PY5" s="1907"/>
-      <c r="PZ5" s="1908"/>
-      <c r="QA5" s="1909"/>
-      <c r="QB5" s="1910"/>
-      <c r="QC5" s="1911"/>
-      <c r="QD5" s="1912"/>
-      <c r="QE5" t="s" s="1913">
+      <c r="PT5" s="1926"/>
+      <c r="PU5" s="1927"/>
+      <c r="PV5" s="1928"/>
+      <c r="PW5" s="1929"/>
+      <c r="PX5" s="1930"/>
+      <c r="PY5" s="1931"/>
+      <c r="PZ5" s="1932"/>
+      <c r="QA5" s="1933"/>
+      <c r="QB5" s="1934"/>
+      <c r="QC5" s="1935"/>
+      <c r="QD5" s="1936"/>
+      <c r="QE5" t="s" s="1937">
         <v>42</v>
       </c>
-      <c r="QF5" s="1914"/>
-      <c r="QG5" s="1915"/>
-      <c r="QH5" s="1916"/>
-      <c r="QI5" s="1917"/>
-      <c r="QJ5" s="1918"/>
-      <c r="QK5" s="1919"/>
-      <c r="QL5" s="1920"/>
-      <c r="QM5" s="1921"/>
-      <c r="QN5" s="1922"/>
-      <c r="QO5" s="1923"/>
-      <c r="QP5" s="1924"/>
-      <c r="QQ5" t="s" s="1925">
+      <c r="QF5" s="1938"/>
+      <c r="QG5" s="1939"/>
+      <c r="QH5" s="1940"/>
+      <c r="QI5" s="1941"/>
+      <c r="QJ5" s="1942"/>
+      <c r="QK5" s="1943"/>
+      <c r="QL5" s="1944"/>
+      <c r="QM5" s="1945"/>
+      <c r="QN5" s="1946"/>
+      <c r="QO5" s="1947"/>
+      <c r="QP5" s="1948"/>
+      <c r="QQ5" t="s" s="1949">
         <v>43</v>
       </c>
-      <c r="QR5" s="1926"/>
-      <c r="QS5" s="1927"/>
-      <c r="QT5" s="1928"/>
-      <c r="QU5" s="1929"/>
-      <c r="QV5" s="1930"/>
-      <c r="QW5" s="1931"/>
-      <c r="QX5" s="1932"/>
-      <c r="QY5" s="1933"/>
-      <c r="QZ5" s="1934"/>
-      <c r="RA5" s="1935"/>
-      <c r="RB5" s="1936"/>
-      <c r="RC5" t="s" s="1937">
+      <c r="QR5" s="1950"/>
+      <c r="QS5" s="1951"/>
+      <c r="QT5" s="1952"/>
+      <c r="QU5" s="1953"/>
+      <c r="QV5" s="1954"/>
+      <c r="QW5" s="1955"/>
+      <c r="QX5" s="1956"/>
+      <c r="QY5" s="1957"/>
+      <c r="QZ5" s="1958"/>
+      <c r="RA5" s="1959"/>
+      <c r="RB5" s="1960"/>
+      <c r="RC5" t="s" s="1961">
         <v>44</v>
       </c>
-      <c r="RD5" s="1938"/>
-      <c r="RE5" s="1939"/>
-      <c r="RF5" s="1940"/>
-      <c r="RG5" s="1941"/>
-      <c r="RH5" s="1942"/>
-      <c r="RI5" s="1943"/>
-      <c r="RJ5" s="1944"/>
-      <c r="RK5" s="1945"/>
-      <c r="RL5" s="1946"/>
-      <c r="RM5" s="1947"/>
-      <c r="RN5" s="1948"/>
-      <c r="RO5" t="s" s="1949">
+      <c r="RD5" s="1962"/>
+      <c r="RE5" s="1963"/>
+      <c r="RF5" s="1964"/>
+      <c r="RG5" s="1965"/>
+      <c r="RH5" s="1966"/>
+      <c r="RI5" s="1967"/>
+      <c r="RJ5" s="1968"/>
+      <c r="RK5" s="1969"/>
+      <c r="RL5" s="1970"/>
+      <c r="RM5" s="1971"/>
+      <c r="RN5" s="1972"/>
+      <c r="RO5" t="s" s="1973">
         <v>45</v>
       </c>
-      <c r="RP5" s="1950"/>
-      <c r="RQ5" s="1951"/>
-      <c r="RR5" s="1952"/>
-      <c r="RS5" s="1953"/>
-      <c r="RT5" s="1954"/>
-      <c r="RU5" s="1955"/>
-      <c r="RV5" s="1956"/>
-      <c r="RW5" s="1957"/>
-      <c r="RX5" s="1958"/>
-      <c r="RY5" s="1959"/>
-      <c r="RZ5" s="1960"/>
-      <c r="SA5" t="s" s="1961">
+      <c r="RP5" s="1974"/>
+      <c r="RQ5" s="1975"/>
+      <c r="RR5" s="1976"/>
+      <c r="RS5" s="1977"/>
+      <c r="RT5" s="1978"/>
+      <c r="RU5" s="1979"/>
+      <c r="RV5" s="1980"/>
+      <c r="RW5" s="1981"/>
+      <c r="RX5" s="1982"/>
+      <c r="RY5" s="1983"/>
+      <c r="RZ5" s="1984"/>
+      <c r="SA5" t="s" s="1985">
         <v>46</v>
       </c>
-      <c r="SB5" s="1962"/>
-      <c r="SC5" s="1963"/>
-      <c r="SD5" s="1964"/>
-      <c r="SE5" s="1965"/>
-      <c r="SF5" s="1966"/>
-      <c r="SG5" s="1967"/>
-      <c r="SH5" s="1968"/>
-      <c r="SI5" s="1969"/>
-      <c r="SJ5" s="1970"/>
-      <c r="SK5" s="1971"/>
-      <c r="SL5" s="1972"/>
-      <c r="SM5" t="s" s="1973">
+      <c r="SB5" s="1986"/>
+      <c r="SC5" s="1987"/>
+      <c r="SD5" s="1988"/>
+      <c r="SE5" s="1989"/>
+      <c r="SF5" s="1990"/>
+      <c r="SG5" s="1991"/>
+      <c r="SH5" s="1992"/>
+      <c r="SI5" s="1993"/>
+      <c r="SJ5" s="1994"/>
+      <c r="SK5" s="1995"/>
+      <c r="SL5" s="1996"/>
+      <c r="SM5" t="s" s="1997">
         <v>47</v>
       </c>
-      <c r="SN5" s="1974"/>
-      <c r="SO5" s="1975"/>
-      <c r="SP5" s="1976"/>
-      <c r="SQ5" s="1977"/>
-      <c r="SR5" s="1978"/>
-      <c r="SS5" s="1979"/>
-      <c r="ST5" s="1980"/>
-      <c r="SU5" s="1981"/>
-      <c r="SV5" s="1982"/>
-      <c r="SW5" s="1983"/>
-      <c r="SX5" s="1984"/>
-      <c r="SY5" t="s" s="1985">
+      <c r="SN5" s="1998"/>
+      <c r="SO5" s="1999"/>
+      <c r="SP5" s="2000"/>
+      <c r="SQ5" s="2001"/>
+      <c r="SR5" s="2002"/>
+      <c r="SS5" s="2003"/>
+      <c r="ST5" s="2004"/>
+      <c r="SU5" s="2005"/>
+      <c r="SV5" s="2006"/>
+      <c r="SW5" s="2007"/>
+      <c r="SX5" s="2008"/>
+      <c r="SY5" t="s" s="2009">
         <v>48</v>
       </c>
-      <c r="SZ5" s="1986"/>
-      <c r="TA5" s="1987"/>
-      <c r="TB5" s="1988"/>
-      <c r="TC5" s="1989"/>
-      <c r="TD5" s="1990"/>
-      <c r="TE5" s="1991"/>
-      <c r="TF5" s="1992"/>
-      <c r="TG5" s="1993"/>
-      <c r="TH5" s="1994"/>
-      <c r="TI5" s="1995"/>
-      <c r="TJ5" s="1996"/>
-      <c r="TK5" t="s" s="1997">
+      <c r="SZ5" s="2010"/>
+      <c r="TA5" s="2011"/>
+      <c r="TB5" s="2012"/>
+      <c r="TC5" s="2013"/>
+      <c r="TD5" s="2014"/>
+      <c r="TE5" s="2015"/>
+      <c r="TF5" s="2016"/>
+      <c r="TG5" s="2017"/>
+      <c r="TH5" s="2018"/>
+      <c r="TI5" s="2019"/>
+      <c r="TJ5" s="2020"/>
+      <c r="TK5" t="s" s="2021">
         <v>49</v>
       </c>
-      <c r="TL5" s="1998"/>
-      <c r="TM5" s="1999"/>
-      <c r="TN5" s="2000"/>
-      <c r="TO5" s="2001"/>
-      <c r="TP5" s="2002"/>
-      <c r="TQ5" s="2003"/>
-      <c r="TR5" s="2004"/>
-      <c r="TS5" s="2005"/>
-      <c r="TT5" s="2006"/>
-      <c r="TU5" s="2007"/>
-      <c r="TV5" s="2008"/>
-      <c r="TW5" t="s" s="2009">
+      <c r="TL5" s="2022"/>
+      <c r="TM5" s="2023"/>
+      <c r="TN5" s="2024"/>
+      <c r="TO5" s="2025"/>
+      <c r="TP5" s="2026"/>
+      <c r="TQ5" s="2027"/>
+      <c r="TR5" s="2028"/>
+      <c r="TS5" s="2029"/>
+      <c r="TT5" s="2030"/>
+      <c r="TU5" s="2031"/>
+      <c r="TV5" s="2032"/>
+      <c r="TW5" t="s" s="2033">
         <v>50</v>
       </c>
-      <c r="TX5" s="2010"/>
-      <c r="TY5" s="2011"/>
-      <c r="TZ5" s="2012"/>
-      <c r="UA5" s="2013"/>
-      <c r="UB5" s="2014"/>
-      <c r="UC5" s="2015"/>
-      <c r="UD5" s="2016"/>
-      <c r="UE5" s="2017"/>
-      <c r="UF5" s="2018"/>
-      <c r="UG5" s="2019"/>
-      <c r="UH5" s="2020"/>
-      <c r="UI5" t="s" s="2021">
+      <c r="TX5" s="2034"/>
+      <c r="TY5" s="2035"/>
+      <c r="TZ5" s="2036"/>
+      <c r="UA5" s="2037"/>
+      <c r="UB5" s="2038"/>
+      <c r="UC5" s="2039"/>
+      <c r="UD5" s="2040"/>
+      <c r="UE5" s="2041"/>
+      <c r="UF5" s="2042"/>
+      <c r="UG5" s="2043"/>
+      <c r="UH5" s="2044"/>
+      <c r="UI5" t="s" s="2045">
         <v>51</v>
       </c>
-      <c r="UJ5" s="2022"/>
-      <c r="UK5" s="2023"/>
-      <c r="UL5" s="2024"/>
-      <c r="UM5" s="2025"/>
-      <c r="UN5" s="2026"/>
-      <c r="UO5" s="2027"/>
-      <c r="UP5" s="2028"/>
-      <c r="UQ5" s="2029"/>
-      <c r="UR5" s="2030"/>
-      <c r="US5" s="2031"/>
-      <c r="UT5" s="2032"/>
-      <c r="UU5" t="s" s="2033">
+      <c r="UJ5" s="2046"/>
+      <c r="UK5" s="2047"/>
+      <c r="UL5" s="2048"/>
+      <c r="UM5" s="2049"/>
+      <c r="UN5" s="2050"/>
+      <c r="UO5" s="2051"/>
+      <c r="UP5" s="2052"/>
+      <c r="UQ5" s="2053"/>
+      <c r="UR5" s="2054"/>
+      <c r="US5" s="2055"/>
+      <c r="UT5" s="2056"/>
+      <c r="UU5" t="s" s="2057">
         <v>52</v>
       </c>
-      <c r="UV5" s="2034"/>
-      <c r="UW5" s="2035"/>
-      <c r="UX5" s="2036"/>
-      <c r="UY5" s="2037"/>
-      <c r="UZ5" s="2038"/>
-      <c r="VA5" s="2039"/>
-      <c r="VB5" s="2040"/>
-      <c r="VC5" s="2041"/>
-      <c r="VD5" s="2042"/>
-      <c r="VE5" s="2043"/>
-      <c r="VF5" s="2044"/>
-      <c r="VG5" t="s" s="2045">
+      <c r="UV5" s="2058"/>
+      <c r="UW5" s="2059"/>
+      <c r="UX5" s="2060"/>
+      <c r="UY5" s="2061"/>
+      <c r="UZ5" s="2062"/>
+      <c r="VA5" s="2063"/>
+      <c r="VB5" s="2064"/>
+      <c r="VC5" s="2065"/>
+      <c r="VD5" s="2066"/>
+      <c r="VE5" s="2067"/>
+      <c r="VF5" s="2068"/>
+      <c r="VG5" t="s" s="2069">
         <v>53</v>
       </c>
-      <c r="VH5" s="2046"/>
-      <c r="VI5" s="2047"/>
-      <c r="VJ5" s="2048"/>
-      <c r="VK5" s="2049"/>
-      <c r="VL5" s="2050"/>
-      <c r="VM5" s="2051"/>
-      <c r="VN5" s="2052"/>
-      <c r="VO5" s="2053"/>
-      <c r="VP5" s="2054"/>
-      <c r="VQ5" s="2055"/>
-      <c r="VR5" s="2056"/>
-      <c r="VS5" t="s" s="2057">
+      <c r="VH5" s="2070"/>
+      <c r="VI5" s="2071"/>
+      <c r="VJ5" s="2072"/>
+      <c r="VK5" s="2073"/>
+      <c r="VL5" s="2074"/>
+      <c r="VM5" s="2075"/>
+      <c r="VN5" s="2076"/>
+      <c r="VO5" s="2077"/>
+      <c r="VP5" s="2078"/>
+      <c r="VQ5" s="2079"/>
+      <c r="VR5" s="2080"/>
+      <c r="VS5" t="s" s="2081">
         <v>54</v>
       </c>
-      <c r="VT5" s="2058"/>
-      <c r="VU5" s="2059"/>
-      <c r="VV5" s="2060"/>
-      <c r="VW5" s="2061"/>
-      <c r="VX5" s="2062"/>
-      <c r="VY5" s="2063"/>
-      <c r="VZ5" s="2064"/>
-      <c r="WA5" s="2065"/>
-      <c r="WB5" s="2066"/>
-      <c r="WC5" s="2067"/>
-      <c r="WD5" s="2068"/>
-      <c r="WE5" t="s" s="2069">
+      <c r="VT5" s="2082"/>
+      <c r="VU5" s="2083"/>
+      <c r="VV5" s="2084"/>
+      <c r="VW5" s="2085"/>
+      <c r="VX5" s="2086"/>
+      <c r="VY5" s="2087"/>
+      <c r="VZ5" s="2088"/>
+      <c r="WA5" s="2089"/>
+      <c r="WB5" s="2090"/>
+      <c r="WC5" s="2091"/>
+      <c r="WD5" s="2092"/>
+      <c r="WE5" t="s" s="2093">
         <v>55</v>
       </c>
-      <c r="WF5" s="2070"/>
-      <c r="WG5" s="2071"/>
-      <c r="WH5" s="2072"/>
-      <c r="WI5" s="2073"/>
-      <c r="WJ5" s="2074"/>
-      <c r="WK5" s="2075"/>
-      <c r="WL5" s="2076"/>
-      <c r="WM5" s="2077"/>
-      <c r="WN5" s="2078"/>
-      <c r="WO5" s="2079"/>
-      <c r="WP5" s="2080"/>
-      <c r="WQ5" t="s" s="2081">
+      <c r="WF5" s="2094"/>
+      <c r="WG5" s="2095"/>
+      <c r="WH5" s="2096"/>
+      <c r="WI5" s="2097"/>
+      <c r="WJ5" s="2098"/>
+      <c r="WK5" s="2099"/>
+      <c r="WL5" s="2100"/>
+      <c r="WM5" s="2101"/>
+      <c r="WN5" s="2102"/>
+      <c r="WO5" s="2103"/>
+      <c r="WP5" s="2104"/>
+      <c r="WQ5" t="s" s="2105">
         <v>56</v>
       </c>
-      <c r="WR5" s="2082"/>
-      <c r="WS5" s="2083"/>
-      <c r="WT5" s="2084"/>
-      <c r="WU5" s="2085"/>
-      <c r="WV5" s="2086"/>
-      <c r="WW5" s="2087"/>
-      <c r="WX5" s="2088"/>
-      <c r="WY5" s="2089"/>
-      <c r="WZ5" s="2090"/>
-      <c r="XA5" s="2091"/>
-      <c r="XB5" s="2092"/>
-      <c r="XC5" t="s" s="2093">
+      <c r="WR5" s="2106"/>
+      <c r="WS5" s="2107"/>
+      <c r="WT5" s="2108"/>
+      <c r="WU5" s="2109"/>
+      <c r="WV5" s="2110"/>
+      <c r="WW5" s="2111"/>
+      <c r="WX5" s="2112"/>
+      <c r="WY5" s="2113"/>
+      <c r="WZ5" s="2114"/>
+      <c r="XA5" s="2115"/>
+      <c r="XB5" s="2116"/>
+      <c r="XC5" t="s" s="2117">
         <v>57</v>
       </c>
-      <c r="XD5" s="2094"/>
-      <c r="XE5" s="2095"/>
-      <c r="XF5" s="2096"/>
-      <c r="XG5" s="2097"/>
-      <c r="XH5" s="2098"/>
-      <c r="XI5" s="2099"/>
-      <c r="XJ5" s="2100"/>
-      <c r="XK5" s="2101"/>
-      <c r="XL5" s="2102"/>
-      <c r="XM5" s="2103"/>
-      <c r="XN5" s="2104"/>
-      <c r="XO5" t="s" s="2105">
+      <c r="XD5" s="2118"/>
+      <c r="XE5" s="2119"/>
+      <c r="XF5" s="2120"/>
+      <c r="XG5" s="2121"/>
+      <c r="XH5" s="2122"/>
+      <c r="XI5" s="2123"/>
+      <c r="XJ5" s="2124"/>
+      <c r="XK5" s="2125"/>
+      <c r="XL5" s="2126"/>
+      <c r="XM5" s="2127"/>
+      <c r="XN5" s="2128"/>
+      <c r="XO5" t="s" s="2129">
         <v>58</v>
       </c>
-      <c r="XP5" s="2106"/>
-      <c r="XQ5" s="2107"/>
-      <c r="XR5" s="2108"/>
-      <c r="XS5" s="2109"/>
-      <c r="XT5" s="2110"/>
-      <c r="XU5" s="2111"/>
-      <c r="XV5" s="2112"/>
-      <c r="XW5" s="2113"/>
-      <c r="XX5" s="2114"/>
-      <c r="XY5" s="2115"/>
-      <c r="XZ5" s="2116"/>
-      <c r="YA5" t="s" s="2117">
+      <c r="XP5" s="2130"/>
+      <c r="XQ5" s="2131"/>
+      <c r="XR5" s="2132"/>
+      <c r="XS5" s="2133"/>
+      <c r="XT5" s="2134"/>
+      <c r="XU5" s="2135"/>
+      <c r="XV5" s="2136"/>
+      <c r="XW5" s="2137"/>
+      <c r="XX5" s="2138"/>
+      <c r="XY5" s="2139"/>
+      <c r="XZ5" s="2140"/>
+      <c r="YA5" t="s" s="2141">
         <v>59</v>
       </c>
-      <c r="YB5" s="2118"/>
-      <c r="YC5" s="2119"/>
-      <c r="YD5" s="2120"/>
-      <c r="YE5" s="2121"/>
-      <c r="YF5" s="2122"/>
-      <c r="YG5" s="2123"/>
-      <c r="YH5" s="2124"/>
-      <c r="YI5" s="2125"/>
-      <c r="YJ5" s="2126"/>
-      <c r="YK5" s="2127"/>
-      <c r="YL5" s="2128"/>
-      <c r="YM5" t="s" s="2129">
+      <c r="YB5" s="2142"/>
+      <c r="YC5" s="2143"/>
+      <c r="YD5" s="2144"/>
+      <c r="YE5" s="2145"/>
+      <c r="YF5" s="2146"/>
+      <c r="YG5" s="2147"/>
+      <c r="YH5" s="2148"/>
+      <c r="YI5" s="2149"/>
+      <c r="YJ5" s="2150"/>
+      <c r="YK5" s="2151"/>
+      <c r="YL5" s="2152"/>
+      <c r="YM5" t="s" s="2153">
         <v>60</v>
       </c>
-      <c r="YN5" s="2130"/>
-      <c r="YO5" s="2131"/>
-      <c r="YP5" s="2132"/>
-      <c r="YQ5" s="2133"/>
-      <c r="YR5" s="2134"/>
-      <c r="YS5" s="2135"/>
-      <c r="YT5" s="2136"/>
-      <c r="YU5" s="2137"/>
-      <c r="YV5" s="2138"/>
-      <c r="YW5" s="2139"/>
-      <c r="YX5" s="2140"/>
-      <c r="YY5" t="s" s="2141">
+      <c r="YN5" s="2154"/>
+      <c r="YO5" s="2155"/>
+      <c r="YP5" s="2156"/>
+      <c r="YQ5" s="2157"/>
+      <c r="YR5" s="2158"/>
+      <c r="YS5" s="2159"/>
+      <c r="YT5" s="2160"/>
+      <c r="YU5" s="2161"/>
+      <c r="YV5" s="2162"/>
+      <c r="YW5" s="2163"/>
+      <c r="YX5" s="2164"/>
+      <c r="YY5" t="s" s="2165">
         <v>61</v>
       </c>
-      <c r="YZ5" s="2142"/>
-      <c r="ZA5" s="2143"/>
-      <c r="ZB5" s="2144"/>
-      <c r="ZC5" s="2145"/>
-      <c r="ZD5" s="2146"/>
-      <c r="ZE5" s="2147"/>
-      <c r="ZF5" s="2148"/>
-      <c r="ZG5" s="2149"/>
-      <c r="ZH5" s="2150"/>
-      <c r="ZI5" s="2151"/>
-      <c r="ZJ5" s="2152"/>
-      <c r="ZK5" t="s" s="2153">
+      <c r="YZ5" s="2166"/>
+      <c r="ZA5" s="2167"/>
+      <c r="ZB5" s="2168"/>
+      <c r="ZC5" s="2169"/>
+      <c r="ZD5" s="2170"/>
+      <c r="ZE5" s="2171"/>
+      <c r="ZF5" s="2172"/>
+      <c r="ZG5" s="2173"/>
+      <c r="ZH5" s="2174"/>
+      <c r="ZI5" s="2175"/>
+      <c r="ZJ5" s="2176"/>
+      <c r="ZK5" t="s" s="2177">
         <v>62</v>
       </c>
-      <c r="ZL5" s="2154"/>
-      <c r="ZM5" s="2155"/>
-      <c r="ZN5" s="2156"/>
-      <c r="ZO5" s="2157"/>
-      <c r="ZP5" s="2158"/>
-      <c r="ZQ5" s="2159"/>
-      <c r="ZR5" s="2160"/>
-      <c r="ZS5" s="2161"/>
-      <c r="ZT5" s="2162"/>
-      <c r="ZU5" s="2163"/>
-      <c r="ZV5" s="2164"/>
-      <c r="ZW5" t="s" s="2165">
+      <c r="ZL5" s="2178"/>
+      <c r="ZM5" s="2179"/>
+      <c r="ZN5" s="2180"/>
+      <c r="ZO5" s="2181"/>
+      <c r="ZP5" s="2182"/>
+      <c r="ZQ5" s="2183"/>
+      <c r="ZR5" s="2184"/>
+      <c r="ZS5" s="2185"/>
+      <c r="ZT5" s="2186"/>
+      <c r="ZU5" s="2187"/>
+      <c r="ZV5" s="2188"/>
+      <c r="ZW5" t="s" s="2189">
         <v>63</v>
       </c>
-      <c r="ZX5" s="2166"/>
-      <c r="ZY5" s="2167"/>
-      <c r="ZZ5" s="2168"/>
-      <c r="AAA5" s="2169"/>
-      <c r="AAB5" s="2170"/>
-      <c r="AAC5" s="2171"/>
-      <c r="AAD5" s="2172"/>
-      <c r="AAE5" s="2173"/>
-      <c r="AAF5" s="2174"/>
-      <c r="AAG5" s="2175"/>
-      <c r="AAH5" s="2176"/>
-      <c r="AAI5" t="s" s="2177">
+      <c r="ZX5" s="2190"/>
+      <c r="ZY5" s="2191"/>
+      <c r="ZZ5" s="2192"/>
+      <c r="AAA5" s="2193"/>
+      <c r="AAB5" s="2194"/>
+      <c r="AAC5" s="2195"/>
+      <c r="AAD5" s="2196"/>
+      <c r="AAE5" s="2197"/>
+      <c r="AAF5" s="2198"/>
+      <c r="AAG5" s="2199"/>
+      <c r="AAH5" s="2200"/>
+      <c r="AAI5" t="s" s="2201">
         <v>64</v>
       </c>
-      <c r="AAJ5" s="2178"/>
-      <c r="AAK5" s="2179"/>
-      <c r="AAL5" s="2180"/>
-      <c r="AAM5" s="2181"/>
-      <c r="AAN5" s="2182"/>
-      <c r="AAO5" s="2183"/>
-      <c r="AAP5" s="2184"/>
-      <c r="AAQ5" s="2185"/>
-      <c r="AAR5" s="2186"/>
-      <c r="AAS5" s="2187"/>
-      <c r="AAT5" s="2188"/>
+      <c r="AAJ5" s="2202"/>
+      <c r="AAK5" s="2203"/>
+      <c r="AAL5" s="2204"/>
+      <c r="AAM5" s="2205"/>
+      <c r="AAN5" s="2206"/>
+      <c r="AAO5" s="2207"/>
+      <c r="AAP5" s="2208"/>
+      <c r="AAQ5" s="2209"/>
+      <c r="AAR5" s="2210"/>
+      <c r="AAS5" s="2211"/>
+      <c r="AAT5" s="2212"/>
+      <c r="AAU5" t="s" s="2213">
+        <v>65</v>
+      </c>
+      <c r="AAV5" s="2214"/>
+      <c r="AAW5" s="2215"/>
+      <c r="AAX5" s="2216"/>
+      <c r="AAY5" s="2217"/>
+      <c r="AAZ5" s="2218"/>
+      <c r="ABA5" s="2219"/>
+      <c r="ABB5" s="2220"/>
+      <c r="ABC5" s="2221"/>
+      <c r="ABD5" s="2222"/>
+      <c r="ABE5" s="2223"/>
+      <c r="ABF5" s="2224"/>
     </row>
     <row r="6">
-      <c r="A6" s="2189"/>
-      <c r="B6" s="2190"/>
-      <c r="C6" t="s" s="2191">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s" s="2192">
+      <c r="A6" s="2225"/>
+      <c r="B6" s="2226"/>
+      <c r="C6" t="s" s="2227">
         <v>66</v>
       </c>
-      <c r="E6" t="s" s="2193">
+      <c r="D6" t="s" s="2228">
         <v>67</v>
       </c>
-      <c r="F6" t="s" s="2194">
+      <c r="E6" t="s" s="2229">
         <v>68</v>
       </c>
-      <c r="G6" t="s" s="2195">
+      <c r="F6" t="s" s="2230">
         <v>69</v>
       </c>
-      <c r="H6" t="s" s="2196">
+      <c r="G6" t="s" s="2231">
         <v>70</v>
       </c>
-      <c r="I6" t="s" s="2197">
+      <c r="H6" t="s" s="2232">
         <v>71</v>
       </c>
-      <c r="J6" t="s" s="2198">
+      <c r="I6" t="s" s="2233">
         <v>72</v>
       </c>
-      <c r="K6" t="s" s="2199">
+      <c r="J6" t="s" s="2234">
         <v>73</v>
       </c>
-      <c r="L6" t="s" s="2200">
+      <c r="K6" t="s" s="2235">
         <v>74</v>
       </c>
-      <c r="M6" t="s" s="2201">
+      <c r="L6" t="s" s="2236">
         <v>75</v>
       </c>
-      <c r="N6" t="s" s="2202">
+      <c r="M6" t="s" s="2237">
         <v>76</v>
       </c>
-      <c r="O6" t="s" s="2203">
-        <v>65</v>
-      </c>
-      <c r="P6" t="s" s="2204">
+      <c r="N6" t="s" s="2238">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s" s="2239">
         <v>66</v>
       </c>
-      <c r="Q6" t="s" s="2205">
+      <c r="P6" t="s" s="2240">
         <v>67</v>
       </c>
-      <c r="R6" t="s" s="2206">
+      <c r="Q6" t="s" s="2241">
         <v>68</v>
       </c>
-      <c r="S6" t="s" s="2207">
+      <c r="R6" t="s" s="2242">
         <v>69</v>
       </c>
-      <c r="T6" t="s" s="2208">
+      <c r="S6" t="s" s="2243">
         <v>70</v>
       </c>
-      <c r="U6" t="s" s="2209">
+      <c r="T6" t="s" s="2244">
         <v>71</v>
       </c>
-      <c r="V6" t="s" s="2210">
+      <c r="U6" t="s" s="2245">
         <v>72</v>
       </c>
-      <c r="W6" t="s" s="2211">
+      <c r="V6" t="s" s="2246">
         <v>73</v>
       </c>
-      <c r="X6" t="s" s="2212">
+      <c r="W6" t="s" s="2247">
         <v>74</v>
       </c>
-      <c r="Y6" t="s" s="2213">
+      <c r="X6" t="s" s="2248">
         <v>75</v>
       </c>
-      <c r="Z6" t="s" s="2214">
+      <c r="Y6" t="s" s="2249">
         <v>76</v>
       </c>
-      <c r="AA6" t="s" s="2215">
-        <v>65</v>
-      </c>
-      <c r="AB6" t="s" s="2216">
+      <c r="Z6" t="s" s="2250">
+        <v>77</v>
+      </c>
+      <c r="AA6" t="s" s="2251">
         <v>66</v>
       </c>
-      <c r="AC6" t="s" s="2217">
+      <c r="AB6" t="s" s="2252">
         <v>67</v>
       </c>
-      <c r="AD6" t="s" s="2218">
+      <c r="AC6" t="s" s="2253">
         <v>68</v>
       </c>
-      <c r="AE6" t="s" s="2219">
+      <c r="AD6" t="s" s="2254">
         <v>69</v>
       </c>
-      <c r="AF6" t="s" s="2220">
+      <c r="AE6" t="s" s="2255">
         <v>70</v>
       </c>
-      <c r="AG6" t="s" s="2221">
+      <c r="AF6" t="s" s="2256">
         <v>71</v>
       </c>
-      <c r="AH6" t="s" s="2222">
+      <c r="AG6" t="s" s="2257">
         <v>72</v>
       </c>
-      <c r="AI6" t="s" s="2223">
+      <c r="AH6" t="s" s="2258">
         <v>73</v>
       </c>
-      <c r="AJ6" t="s" s="2224">
+      <c r="AI6" t="s" s="2259">
         <v>74</v>
       </c>
-      <c r="AK6" t="s" s="2225">
+      <c r="AJ6" t="s" s="2260">
         <v>75</v>
       </c>
-      <c r="AL6" t="s" s="2226">
+      <c r="AK6" t="s" s="2261">
         <v>76</v>
       </c>
-      <c r="AM6" t="s" s="2227">
-        <v>65</v>
-      </c>
-      <c r="AN6" t="s" s="2228">
+      <c r="AL6" t="s" s="2262">
+        <v>77</v>
+      </c>
+      <c r="AM6" t="s" s="2263">
         <v>66</v>
       </c>
-      <c r="AO6" t="s" s="2229">
+      <c r="AN6" t="s" s="2264">
         <v>67</v>
       </c>
-      <c r="AP6" t="s" s="2230">
+      <c r="AO6" t="s" s="2265">
         <v>68</v>
       </c>
-      <c r="AQ6" t="s" s="2231">
+      <c r="AP6" t="s" s="2266">
         <v>69</v>
       </c>
-      <c r="AR6" t="s" s="2232">
+      <c r="AQ6" t="s" s="2267">
         <v>70</v>
       </c>
-      <c r="AS6" t="s" s="2233">
+      <c r="AR6" t="s" s="2268">
         <v>71</v>
       </c>
-      <c r="AT6" t="s" s="2234">
+      <c r="AS6" t="s" s="2269">
         <v>72</v>
       </c>
-      <c r="AU6" t="s" s="2235">
+      <c r="AT6" t="s" s="2270">
         <v>73</v>
       </c>
-      <c r="AV6" t="s" s="2236">
+      <c r="AU6" t="s" s="2271">
         <v>74</v>
       </c>
-      <c r="AW6" t="s" s="2237">
+      <c r="AV6" t="s" s="2272">
         <v>75</v>
       </c>
-      <c r="AX6" t="s" s="2238">
+      <c r="AW6" t="s" s="2273">
         <v>76</v>
       </c>
-      <c r="AY6" t="s" s="2239">
-        <v>65</v>
-      </c>
-      <c r="AZ6" t="s" s="2240">
+      <c r="AX6" t="s" s="2274">
+        <v>77</v>
+      </c>
+      <c r="AY6" t="s" s="2275">
         <v>66</v>
       </c>
-      <c r="BA6" t="s" s="2241">
+      <c r="AZ6" t="s" s="2276">
         <v>67</v>
       </c>
-      <c r="BB6" t="s" s="2242">
+      <c r="BA6" t="s" s="2277">
         <v>68</v>
       </c>
-      <c r="BC6" t="s" s="2243">
+      <c r="BB6" t="s" s="2278">
         <v>69</v>
       </c>
-      <c r="BD6" t="s" s="2244">
+      <c r="BC6" t="s" s="2279">
         <v>70</v>
       </c>
-      <c r="BE6" t="s" s="2245">
+      <c r="BD6" t="s" s="2280">
         <v>71</v>
       </c>
-      <c r="BF6" t="s" s="2246">
+      <c r="BE6" t="s" s="2281">
         <v>72</v>
       </c>
-      <c r="BG6" t="s" s="2247">
+      <c r="BF6" t="s" s="2282">
         <v>73</v>
       </c>
-      <c r="BH6" t="s" s="2248">
+      <c r="BG6" t="s" s="2283">
         <v>74</v>
       </c>
-      <c r="BI6" t="s" s="2249">
+      <c r="BH6" t="s" s="2284">
         <v>75</v>
       </c>
-      <c r="BJ6" t="s" s="2250">
+      <c r="BI6" t="s" s="2285">
         <v>76</v>
       </c>
-      <c r="BK6" t="s" s="2251">
-        <v>65</v>
-      </c>
-      <c r="BL6" t="s" s="2252">
+      <c r="BJ6" t="s" s="2286">
+        <v>77</v>
+      </c>
+      <c r="BK6" t="s" s="2287">
         <v>66</v>
       </c>
-      <c r="BM6" t="s" s="2253">
+      <c r="BL6" t="s" s="2288">
         <v>67</v>
       </c>
-      <c r="BN6" t="s" s="2254">
+      <c r="BM6" t="s" s="2289">
         <v>68</v>
       </c>
-      <c r="BO6" t="s" s="2255">
+      <c r="BN6" t="s" s="2290">
         <v>69</v>
       </c>
-      <c r="BP6" t="s" s="2256">
+      <c r="BO6" t="s" s="2291">
         <v>70</v>
       </c>
-      <c r="BQ6" t="s" s="2257">
+      <c r="BP6" t="s" s="2292">
         <v>71</v>
       </c>
-      <c r="BR6" t="s" s="2258">
+      <c r="BQ6" t="s" s="2293">
         <v>72</v>
       </c>
-      <c r="BS6" t="s" s="2259">
+      <c r="BR6" t="s" s="2294">
         <v>73</v>
       </c>
-      <c r="BT6" t="s" s="2260">
+      <c r="BS6" t="s" s="2295">
         <v>74</v>
       </c>
-      <c r="BU6" t="s" s="2261">
+      <c r="BT6" t="s" s="2296">
         <v>75</v>
       </c>
-      <c r="BV6" t="s" s="2262">
+      <c r="BU6" t="s" s="2297">
         <v>76</v>
       </c>
-      <c r="BW6" t="s" s="2263">
-        <v>65</v>
-      </c>
-      <c r="BX6" t="s" s="2264">
+      <c r="BV6" t="s" s="2298">
+        <v>77</v>
+      </c>
+      <c r="BW6" t="s" s="2299">
         <v>66</v>
       </c>
-      <c r="BY6" t="s" s="2265">
+      <c r="BX6" t="s" s="2300">
         <v>67</v>
       </c>
-      <c r="BZ6" t="s" s="2266">
+      <c r="BY6" t="s" s="2301">
         <v>68</v>
       </c>
-      <c r="CA6" t="s" s="2267">
+      <c r="BZ6" t="s" s="2302">
         <v>69</v>
       </c>
-      <c r="CB6" t="s" s="2268">
+      <c r="CA6" t="s" s="2303">
         <v>70</v>
       </c>
-      <c r="CC6" t="s" s="2269">
+      <c r="CB6" t="s" s="2304">
         <v>71</v>
       </c>
-      <c r="CD6" t="s" s="2270">
+      <c r="CC6" t="s" s="2305">
         <v>72</v>
       </c>
-      <c r="CE6" t="s" s="2271">
+      <c r="CD6" t="s" s="2306">
         <v>73</v>
       </c>
-      <c r="CF6" t="s" s="2272">
+      <c r="CE6" t="s" s="2307">
         <v>74</v>
       </c>
-      <c r="CG6" t="s" s="2273">
+      <c r="CF6" t="s" s="2308">
         <v>75</v>
       </c>
-      <c r="CH6" t="s" s="2274">
+      <c r="CG6" t="s" s="2309">
         <v>76</v>
       </c>
-      <c r="CI6" t="s" s="2275">
-        <v>65</v>
-      </c>
-      <c r="CJ6" t="s" s="2276">
+      <c r="CH6" t="s" s="2310">
+        <v>77</v>
+      </c>
+      <c r="CI6" t="s" s="2311">
         <v>66</v>
       </c>
-      <c r="CK6" t="s" s="2277">
+      <c r="CJ6" t="s" s="2312">
         <v>67</v>
       </c>
-      <c r="CL6" t="s" s="2278">
+      <c r="CK6" t="s" s="2313">
         <v>68</v>
       </c>
-      <c r="CM6" t="s" s="2279">
+      <c r="CL6" t="s" s="2314">
         <v>69</v>
       </c>
-      <c r="CN6" t="s" s="2280">
+      <c r="CM6" t="s" s="2315">
         <v>70</v>
       </c>
-      <c r="CO6" t="s" s="2281">
+      <c r="CN6" t="s" s="2316">
         <v>71</v>
       </c>
-      <c r="CP6" t="s" s="2282">
+      <c r="CO6" t="s" s="2317">
         <v>72</v>
       </c>
-      <c r="CQ6" t="s" s="2283">
+      <c r="CP6" t="s" s="2318">
         <v>73</v>
       </c>
-      <c r="CR6" t="s" s="2284">
+      <c r="CQ6" t="s" s="2319">
         <v>74</v>
       </c>
-      <c r="CS6" t="s" s="2285">
+      <c r="CR6" t="s" s="2320">
         <v>75</v>
       </c>
-      <c r="CT6" t="s" s="2286">
+      <c r="CS6" t="s" s="2321">
         <v>76</v>
       </c>
-      <c r="CU6" t="s" s="2287">
-        <v>65</v>
-      </c>
-      <c r="CV6" t="s" s="2288">
+      <c r="CT6" t="s" s="2322">
+        <v>77</v>
+      </c>
+      <c r="CU6" t="s" s="2323">
         <v>66</v>
       </c>
-      <c r="CW6" t="s" s="2289">
+      <c r="CV6" t="s" s="2324">
         <v>67</v>
       </c>
-      <c r="CX6" t="s" s="2290">
+      <c r="CW6" t="s" s="2325">
         <v>68</v>
       </c>
-      <c r="CY6" t="s" s="2291">
+      <c r="CX6" t="s" s="2326">
         <v>69</v>
       </c>
-      <c r="CZ6" t="s" s="2292">
+      <c r="CY6" t="s" s="2327">
         <v>70</v>
       </c>
-      <c r="DA6" t="s" s="2293">
+      <c r="CZ6" t="s" s="2328">
         <v>71</v>
       </c>
-      <c r="DB6" t="s" s="2294">
+      <c r="DA6" t="s" s="2329">
         <v>72</v>
       </c>
-      <c r="DC6" t="s" s="2295">
+      <c r="DB6" t="s" s="2330">
         <v>73</v>
       </c>
-      <c r="DD6" t="s" s="2296">
+      <c r="DC6" t="s" s="2331">
         <v>74</v>
       </c>
-      <c r="DE6" t="s" s="2297">
+      <c r="DD6" t="s" s="2332">
         <v>75</v>
       </c>
-      <c r="DF6" t="s" s="2298">
+      <c r="DE6" t="s" s="2333">
         <v>76</v>
       </c>
-      <c r="DG6" t="s" s="2299">
-        <v>65</v>
-      </c>
-      <c r="DH6" t="s" s="2300">
+      <c r="DF6" t="s" s="2334">
+        <v>77</v>
+      </c>
+      <c r="DG6" t="s" s="2335">
         <v>66</v>
       </c>
-      <c r="DI6" t="s" s="2301">
+      <c r="DH6" t="s" s="2336">
         <v>67</v>
       </c>
-      <c r="DJ6" t="s" s="2302">
+      <c r="DI6" t="s" s="2337">
         <v>68</v>
       </c>
-      <c r="DK6" t="s" s="2303">
+      <c r="DJ6" t="s" s="2338">
         <v>69</v>
       </c>
-      <c r="DL6" t="s" s="2304">
+      <c r="DK6" t="s" s="2339">
         <v>70</v>
       </c>
-      <c r="DM6" t="s" s="2305">
+      <c r="DL6" t="s" s="2340">
         <v>71</v>
       </c>
-      <c r="DN6" t="s" s="2306">
+      <c r="DM6" t="s" s="2341">
         <v>72</v>
       </c>
-      <c r="DO6" t="s" s="2307">
+      <c r="DN6" t="s" s="2342">
         <v>73</v>
       </c>
-      <c r="DP6" t="s" s="2308">
+      <c r="DO6" t="s" s="2343">
         <v>74</v>
       </c>
-      <c r="DQ6" t="s" s="2309">
+      <c r="DP6" t="s" s="2344">
         <v>75</v>
       </c>
-      <c r="DR6" t="s" s="2310">
+      <c r="DQ6" t="s" s="2345">
         <v>76</v>
       </c>
-      <c r="DS6" t="s" s="2311">
-        <v>65</v>
-      </c>
-      <c r="DT6" t="s" s="2312">
+      <c r="DR6" t="s" s="2346">
+        <v>77</v>
+      </c>
+      <c r="DS6" t="s" s="2347">
         <v>66</v>
       </c>
-      <c r="DU6" t="s" s="2313">
+      <c r="DT6" t="s" s="2348">
         <v>67</v>
       </c>
-      <c r="DV6" t="s" s="2314">
+      <c r="DU6" t="s" s="2349">
         <v>68</v>
       </c>
-      <c r="DW6" t="s" s="2315">
+      <c r="DV6" t="s" s="2350">
         <v>69</v>
       </c>
-      <c r="DX6" t="s" s="2316">
+      <c r="DW6" t="s" s="2351">
         <v>70</v>
       </c>
-      <c r="DY6" t="s" s="2317">
+      <c r="DX6" t="s" s="2352">
         <v>71</v>
       </c>
-      <c r="DZ6" t="s" s="2318">
+      <c r="DY6" t="s" s="2353">
         <v>72</v>
       </c>
-      <c r="EA6" t="s" s="2319">
+      <c r="DZ6" t="s" s="2354">
         <v>73</v>
       </c>
-      <c r="EB6" t="s" s="2320">
+      <c r="EA6" t="s" s="2355">
         <v>74</v>
       </c>
-      <c r="EC6" t="s" s="2321">
+      <c r="EB6" t="s" s="2356">
         <v>75</v>
       </c>
-      <c r="ED6" t="s" s="2322">
+      <c r="EC6" t="s" s="2357">
         <v>76</v>
       </c>
-      <c r="EE6" t="s" s="2323">
-        <v>65</v>
-      </c>
-      <c r="EF6" t="s" s="2324">
+      <c r="ED6" t="s" s="2358">
+        <v>77</v>
+      </c>
+      <c r="EE6" t="s" s="2359">
         <v>66</v>
       </c>
-      <c r="EG6" t="s" s="2325">
+      <c r="EF6" t="s" s="2360">
         <v>67</v>
       </c>
-      <c r="EH6" t="s" s="2326">
+      <c r="EG6" t="s" s="2361">
         <v>68</v>
       </c>
-      <c r="EI6" t="s" s="2327">
+      <c r="EH6" t="s" s="2362">
         <v>69</v>
       </c>
-      <c r="EJ6" t="s" s="2328">
+      <c r="EI6" t="s" s="2363">
         <v>70</v>
       </c>
-      <c r="EK6" t="s" s="2329">
+      <c r="EJ6" t="s" s="2364">
         <v>71</v>
       </c>
-      <c r="EL6" t="s" s="2330">
+      <c r="EK6" t="s" s="2365">
         <v>72</v>
       </c>
-      <c r="EM6" t="s" s="2331">
+      <c r="EL6" t="s" s="2366">
         <v>73</v>
       </c>
-      <c r="EN6" t="s" s="2332">
+      <c r="EM6" t="s" s="2367">
         <v>74</v>
       </c>
-      <c r="EO6" t="s" s="2333">
+      <c r="EN6" t="s" s="2368">
         <v>75</v>
       </c>
-      <c r="EP6" t="s" s="2334">
+      <c r="EO6" t="s" s="2369">
         <v>76</v>
       </c>
-      <c r="EQ6" t="s" s="2335">
-        <v>65</v>
-      </c>
-      <c r="ER6" t="s" s="2336">
+      <c r="EP6" t="s" s="2370">
+        <v>77</v>
+      </c>
+      <c r="EQ6" t="s" s="2371">
         <v>66</v>
       </c>
-      <c r="ES6" t="s" s="2337">
+      <c r="ER6" t="s" s="2372">
         <v>67</v>
       </c>
-      <c r="ET6" t="s" s="2338">
+      <c r="ES6" t="s" s="2373">
         <v>68</v>
       </c>
-      <c r="EU6" t="s" s="2339">
+      <c r="ET6" t="s" s="2374">
         <v>69</v>
       </c>
-      <c r="EV6" t="s" s="2340">
+      <c r="EU6" t="s" s="2375">
         <v>70</v>
       </c>
-      <c r="EW6" t="s" s="2341">
+      <c r="EV6" t="s" s="2376">
         <v>71</v>
       </c>
-      <c r="EX6" t="s" s="2342">
+      <c r="EW6" t="s" s="2377">
         <v>72</v>
       </c>
-      <c r="EY6" t="s" s="2343">
+      <c r="EX6" t="s" s="2378">
         <v>73</v>
       </c>
-      <c r="EZ6" t="s" s="2344">
+      <c r="EY6" t="s" s="2379">
         <v>74</v>
       </c>
-      <c r="FA6" t="s" s="2345">
+      <c r="EZ6" t="s" s="2380">
         <v>75</v>
       </c>
-      <c r="FB6" t="s" s="2346">
+      <c r="FA6" t="s" s="2381">
         <v>76</v>
       </c>
-      <c r="FC6" t="s" s="2347">
-        <v>65</v>
-      </c>
-      <c r="FD6" t="s" s="2348">
+      <c r="FB6" t="s" s="2382">
+        <v>77</v>
+      </c>
+      <c r="FC6" t="s" s="2383">
         <v>66</v>
       </c>
-      <c r="FE6" t="s" s="2349">
+      <c r="FD6" t="s" s="2384">
         <v>67</v>
       </c>
-      <c r="FF6" t="s" s="2350">
+      <c r="FE6" t="s" s="2385">
         <v>68</v>
       </c>
-      <c r="FG6" t="s" s="2351">
+      <c r="FF6" t="s" s="2386">
         <v>69</v>
       </c>
-      <c r="FH6" t="s" s="2352">
+      <c r="FG6" t="s" s="2387">
         <v>70</v>
       </c>
-      <c r="FI6" t="s" s="2353">
+      <c r="FH6" t="s" s="2388">
         <v>71</v>
       </c>
-      <c r="FJ6" t="s" s="2354">
+      <c r="FI6" t="s" s="2389">
         <v>72</v>
       </c>
-      <c r="FK6" t="s" s="2355">
+      <c r="FJ6" t="s" s="2390">
         <v>73</v>
       </c>
-      <c r="FL6" t="s" s="2356">
+      <c r="FK6" t="s" s="2391">
         <v>74</v>
       </c>
-      <c r="FM6" t="s" s="2357">
+      <c r="FL6" t="s" s="2392">
         <v>75</v>
       </c>
-      <c r="FN6" t="s" s="2358">
+      <c r="FM6" t="s" s="2393">
         <v>76</v>
       </c>
-      <c r="FO6" t="s" s="2359">
-        <v>65</v>
-      </c>
-      <c r="FP6" t="s" s="2360">
+      <c r="FN6" t="s" s="2394">
+        <v>77</v>
+      </c>
+      <c r="FO6" t="s" s="2395">
         <v>66</v>
       </c>
-      <c r="FQ6" t="s" s="2361">
+      <c r="FP6" t="s" s="2396">
         <v>67</v>
       </c>
-      <c r="FR6" t="s" s="2362">
+      <c r="FQ6" t="s" s="2397">
         <v>68</v>
       </c>
-      <c r="FS6" t="s" s="2363">
+      <c r="FR6" t="s" s="2398">
         <v>69</v>
       </c>
-      <c r="FT6" t="s" s="2364">
+      <c r="FS6" t="s" s="2399">
         <v>70</v>
       </c>
-      <c r="FU6" t="s" s="2365">
+      <c r="FT6" t="s" s="2400">
         <v>71</v>
       </c>
-      <c r="FV6" t="s" s="2366">
+      <c r="FU6" t="s" s="2401">
         <v>72</v>
       </c>
-      <c r="FW6" t="s" s="2367">
+      <c r="FV6" t="s" s="2402">
         <v>73</v>
       </c>
-      <c r="FX6" t="s" s="2368">
+      <c r="FW6" t="s" s="2403">
         <v>74</v>
       </c>
-      <c r="FY6" t="s" s="2369">
+      <c r="FX6" t="s" s="2404">
         <v>75</v>
       </c>
-      <c r="FZ6" t="s" s="2370">
+      <c r="FY6" t="s" s="2405">
         <v>76</v>
       </c>
-      <c r="GA6" t="s" s="2371">
-        <v>65</v>
-      </c>
-      <c r="GB6" t="s" s="2372">
+      <c r="FZ6" t="s" s="2406">
+        <v>77</v>
+      </c>
+      <c r="GA6" t="s" s="2407">
         <v>66</v>
       </c>
-      <c r="GC6" t="s" s="2373">
+      <c r="GB6" t="s" s="2408">
         <v>67</v>
       </c>
-      <c r="GD6" t="s" s="2374">
+      <c r="GC6" t="s" s="2409">
         <v>68</v>
       </c>
-      <c r="GE6" t="s" s="2375">
+      <c r="GD6" t="s" s="2410">
         <v>69</v>
       </c>
-      <c r="GF6" t="s" s="2376">
+      <c r="GE6" t="s" s="2411">
         <v>70</v>
       </c>
-      <c r="GG6" t="s" s="2377">
+      <c r="GF6" t="s" s="2412">
         <v>71</v>
       </c>
-      <c r="GH6" t="s" s="2378">
+      <c r="GG6" t="s" s="2413">
         <v>72</v>
       </c>
-      <c r="GI6" t="s" s="2379">
+      <c r="GH6" t="s" s="2414">
         <v>73</v>
       </c>
-      <c r="GJ6" t="s" s="2380">
+      <c r="GI6" t="s" s="2415">
         <v>74</v>
       </c>
-      <c r="GK6" t="s" s="2381">
+      <c r="GJ6" t="s" s="2416">
         <v>75</v>
       </c>
-      <c r="GL6" t="s" s="2382">
+      <c r="GK6" t="s" s="2417">
         <v>76</v>
       </c>
-      <c r="GM6" t="s" s="2383">
-        <v>65</v>
-      </c>
-      <c r="GN6" t="s" s="2384">
+      <c r="GL6" t="s" s="2418">
+        <v>77</v>
+      </c>
+      <c r="GM6" t="s" s="2419">
         <v>66</v>
       </c>
-      <c r="GO6" t="s" s="2385">
+      <c r="GN6" t="s" s="2420">
         <v>67</v>
       </c>
-      <c r="GP6" t="s" s="2386">
+      <c r="GO6" t="s" s="2421">
         <v>68</v>
       </c>
-      <c r="GQ6" t="s" s="2387">
+      <c r="GP6" t="s" s="2422">
         <v>69</v>
       </c>
-      <c r="GR6" t="s" s="2388">
+      <c r="GQ6" t="s" s="2423">
         <v>70</v>
       </c>
-      <c r="GS6" t="s" s="2389">
+      <c r="GR6" t="s" s="2424">
         <v>71</v>
       </c>
-      <c r="GT6" t="s" s="2390">
+      <c r="GS6" t="s" s="2425">
         <v>72</v>
       </c>
-      <c r="GU6" t="s" s="2391">
+      <c r="GT6" t="s" s="2426">
         <v>73</v>
       </c>
-      <c r="GV6" t="s" s="2392">
+      <c r="GU6" t="s" s="2427">
         <v>74</v>
       </c>
-      <c r="GW6" t="s" s="2393">
+      <c r="GV6" t="s" s="2428">
         <v>75</v>
       </c>
-      <c r="GX6" t="s" s="2394">
+      <c r="GW6" t="s" s="2429">
         <v>76</v>
       </c>
-      <c r="GY6" t="s" s="2395">
-        <v>65</v>
-      </c>
-      <c r="GZ6" t="s" s="2396">
+      <c r="GX6" t="s" s="2430">
+        <v>77</v>
+      </c>
+      <c r="GY6" t="s" s="2431">
         <v>66</v>
       </c>
-      <c r="HA6" t="s" s="2397">
+      <c r="GZ6" t="s" s="2432">
         <v>67</v>
       </c>
-      <c r="HB6" t="s" s="2398">
+      <c r="HA6" t="s" s="2433">
         <v>68</v>
       </c>
-      <c r="HC6" t="s" s="2399">
+      <c r="HB6" t="s" s="2434">
         <v>69</v>
       </c>
-      <c r="HD6" t="s" s="2400">
+      <c r="HC6" t="s" s="2435">
         <v>70</v>
       </c>
-      <c r="HE6" t="s" s="2401">
+      <c r="HD6" t="s" s="2436">
         <v>71</v>
       </c>
-      <c r="HF6" t="s" s="2402">
+      <c r="HE6" t="s" s="2437">
         <v>72</v>
       </c>
-      <c r="HG6" t="s" s="2403">
+      <c r="HF6" t="s" s="2438">
         <v>73</v>
       </c>
-      <c r="HH6" t="s" s="2404">
+      <c r="HG6" t="s" s="2439">
         <v>74</v>
       </c>
-      <c r="HI6" t="s" s="2405">
+      <c r="HH6" t="s" s="2440">
         <v>75</v>
       </c>
-      <c r="HJ6" t="s" s="2406">
+      <c r="HI6" t="s" s="2441">
         <v>76</v>
       </c>
-      <c r="HK6" t="s" s="2407">
-        <v>65</v>
-      </c>
-      <c r="HL6" t="s" s="2408">
+      <c r="HJ6" t="s" s="2442">
+        <v>77</v>
+      </c>
+      <c r="HK6" t="s" s="2443">
         <v>66</v>
       </c>
-      <c r="HM6" t="s" s="2409">
+      <c r="HL6" t="s" s="2444">
         <v>67</v>
       </c>
-      <c r="HN6" t="s" s="2410">
+      <c r="HM6" t="s" s="2445">
         <v>68</v>
       </c>
-      <c r="HO6" t="s" s="2411">
+      <c r="HN6" t="s" s="2446">
         <v>69</v>
       </c>
-      <c r="HP6" t="s" s="2412">
+      <c r="HO6" t="s" s="2447">
         <v>70</v>
       </c>
-      <c r="HQ6" t="s" s="2413">
+      <c r="HP6" t="s" s="2448">
         <v>71</v>
       </c>
-      <c r="HR6" t="s" s="2414">
+      <c r="HQ6" t="s" s="2449">
         <v>72</v>
       </c>
-      <c r="HS6" t="s" s="2415">
+      <c r="HR6" t="s" s="2450">
         <v>73</v>
       </c>
-      <c r="HT6" t="s" s="2416">
+      <c r="HS6" t="s" s="2451">
         <v>74</v>
       </c>
-      <c r="HU6" t="s" s="2417">
+      <c r="HT6" t="s" s="2452">
         <v>75</v>
       </c>
-      <c r="HV6" t="s" s="2418">
+      <c r="HU6" t="s" s="2453">
         <v>76</v>
       </c>
-      <c r="HW6" t="s" s="2419">
-        <v>65</v>
-      </c>
-      <c r="HX6" t="s" s="2420">
+      <c r="HV6" t="s" s="2454">
+        <v>77</v>
+      </c>
+      <c r="HW6" t="s" s="2455">
         <v>66</v>
       </c>
-      <c r="HY6" t="s" s="2421">
+      <c r="HX6" t="s" s="2456">
         <v>67</v>
       </c>
-      <c r="HZ6" t="s" s="2422">
+      <c r="HY6" t="s" s="2457">
         <v>68</v>
       </c>
-      <c r="IA6" t="s" s="2423">
+      <c r="HZ6" t="s" s="2458">
         <v>69</v>
       </c>
-      <c r="IB6" t="s" s="2424">
+      <c r="IA6" t="s" s="2459">
         <v>70</v>
       </c>
-      <c r="IC6" t="s" s="2425">
+      <c r="IB6" t="s" s="2460">
         <v>71</v>
       </c>
-      <c r="ID6" t="s" s="2426">
+      <c r="IC6" t="s" s="2461">
         <v>72</v>
       </c>
-      <c r="IE6" t="s" s="2427">
+      <c r="ID6" t="s" s="2462">
         <v>73</v>
       </c>
-      <c r="IF6" t="s" s="2428">
+      <c r="IE6" t="s" s="2463">
         <v>74</v>
       </c>
-      <c r="IG6" t="s" s="2429">
+      <c r="IF6" t="s" s="2464">
         <v>75</v>
       </c>
-      <c r="IH6" t="s" s="2430">
+      <c r="IG6" t="s" s="2465">
         <v>76</v>
       </c>
-      <c r="II6" t="s" s="2431">
-        <v>65</v>
-      </c>
-      <c r="IJ6" t="s" s="2432">
+      <c r="IH6" t="s" s="2466">
+        <v>77</v>
+      </c>
+      <c r="II6" t="s" s="2467">
         <v>66</v>
       </c>
-      <c r="IK6" t="s" s="2433">
+      <c r="IJ6" t="s" s="2468">
         <v>67</v>
       </c>
-      <c r="IL6" t="s" s="2434">
+      <c r="IK6" t="s" s="2469">
         <v>68</v>
       </c>
-      <c r="IM6" t="s" s="2435">
+      <c r="IL6" t="s" s="2470">
         <v>69</v>
       </c>
-      <c r="IN6" t="s" s="2436">
+      <c r="IM6" t="s" s="2471">
         <v>70</v>
       </c>
-      <c r="IO6" t="s" s="2437">
+      <c r="IN6" t="s" s="2472">
         <v>71</v>
       </c>
-      <c r="IP6" t="s" s="2438">
+      <c r="IO6" t="s" s="2473">
         <v>72</v>
       </c>
-      <c r="IQ6" t="s" s="2439">
+      <c r="IP6" t="s" s="2474">
         <v>73</v>
       </c>
-      <c r="IR6" t="s" s="2440">
+      <c r="IQ6" t="s" s="2475">
         <v>74</v>
       </c>
-      <c r="IS6" t="s" s="2441">
+      <c r="IR6" t="s" s="2476">
         <v>75</v>
       </c>
-      <c r="IT6" t="s" s="2442">
+      <c r="IS6" t="s" s="2477">
         <v>76</v>
       </c>
-      <c r="IU6" t="s" s="2443">
-        <v>65</v>
-      </c>
-      <c r="IV6" t="s" s="2444">
+      <c r="IT6" t="s" s="2478">
+        <v>77</v>
+      </c>
+      <c r="IU6" t="s" s="2479">
         <v>66</v>
       </c>
-      <c r="IW6" t="s" s="2445">
+      <c r="IV6" t="s" s="2480">
         <v>67</v>
       </c>
-      <c r="IX6" t="s" s="2446">
+      <c r="IW6" t="s" s="2481">
         <v>68</v>
       </c>
-      <c r="IY6" t="s" s="2447">
+      <c r="IX6" t="s" s="2482">
         <v>69</v>
       </c>
-      <c r="IZ6" t="s" s="2448">
+      <c r="IY6" t="s" s="2483">
         <v>70</v>
       </c>
-      <c r="JA6" t="s" s="2449">
+      <c r="IZ6" t="s" s="2484">
         <v>71</v>
       </c>
-      <c r="JB6" t="s" s="2450">
+      <c r="JA6" t="s" s="2485">
         <v>72</v>
       </c>
-      <c r="JC6" t="s" s="2451">
+      <c r="JB6" t="s" s="2486">
         <v>73</v>
       </c>
-      <c r="JD6" t="s" s="2452">
+      <c r="JC6" t="s" s="2487">
         <v>74</v>
       </c>
-      <c r="JE6" t="s" s="2453">
+      <c r="JD6" t="s" s="2488">
         <v>75</v>
       </c>
-      <c r="JF6" t="s" s="2454">
+      <c r="JE6" t="s" s="2489">
         <v>76</v>
       </c>
-      <c r="JG6" t="s" s="2455">
-        <v>65</v>
-      </c>
-      <c r="JH6" t="s" s="2456">
+      <c r="JF6" t="s" s="2490">
+        <v>77</v>
+      </c>
+      <c r="JG6" t="s" s="2491">
         <v>66</v>
       </c>
-      <c r="JI6" t="s" s="2457">
+      <c r="JH6" t="s" s="2492">
         <v>67</v>
       </c>
-      <c r="JJ6" t="s" s="2458">
+      <c r="JI6" t="s" s="2493">
         <v>68</v>
       </c>
-      <c r="JK6" t="s" s="2459">
+      <c r="JJ6" t="s" s="2494">
         <v>69</v>
       </c>
-      <c r="JL6" t="s" s="2460">
+      <c r="JK6" t="s" s="2495">
         <v>70</v>
       </c>
-      <c r="JM6" t="s" s="2461">
+      <c r="JL6" t="s" s="2496">
         <v>71</v>
       </c>
-      <c r="JN6" t="s" s="2462">
+      <c r="JM6" t="s" s="2497">
         <v>72</v>
       </c>
-      <c r="JO6" t="s" s="2463">
+      <c r="JN6" t="s" s="2498">
         <v>73</v>
       </c>
-      <c r="JP6" t="s" s="2464">
+      <c r="JO6" t="s" s="2499">
         <v>74</v>
       </c>
-      <c r="JQ6" t="s" s="2465">
+      <c r="JP6" t="s" s="2500">
         <v>75</v>
       </c>
-      <c r="JR6" t="s" s="2466">
+      <c r="JQ6" t="s" s="2501">
         <v>76</v>
       </c>
-      <c r="JS6" t="s" s="2467">
-        <v>65</v>
-      </c>
-      <c r="JT6" t="s" s="2468">
+      <c r="JR6" t="s" s="2502">
+        <v>77</v>
+      </c>
+      <c r="JS6" t="s" s="2503">
         <v>66</v>
       </c>
-      <c r="JU6" t="s" s="2469">
+      <c r="JT6" t="s" s="2504">
         <v>67</v>
       </c>
-      <c r="JV6" t="s" s="2470">
+      <c r="JU6" t="s" s="2505">
         <v>68</v>
       </c>
-      <c r="JW6" t="s" s="2471">
+      <c r="JV6" t="s" s="2506">
         <v>69</v>
       </c>
-      <c r="JX6" t="s" s="2472">
+      <c r="JW6" t="s" s="2507">
         <v>70</v>
       </c>
-      <c r="JY6" t="s" s="2473">
+      <c r="JX6" t="s" s="2508">
         <v>71</v>
       </c>
-      <c r="JZ6" t="s" s="2474">
+      <c r="JY6" t="s" s="2509">
         <v>72</v>
       </c>
-      <c r="KA6" t="s" s="2475">
+      <c r="JZ6" t="s" s="2510">
         <v>73</v>
       </c>
-      <c r="KB6" t="s" s="2476">
+      <c r="KA6" t="s" s="2511">
         <v>74</v>
       </c>
-      <c r="KC6" t="s" s="2477">
+      <c r="KB6" t="s" s="2512">
         <v>75</v>
       </c>
-      <c r="KD6" t="s" s="2478">
+      <c r="KC6" t="s" s="2513">
         <v>76</v>
       </c>
-      <c r="KE6" t="s" s="2479">
-        <v>65</v>
-      </c>
-      <c r="KF6" t="s" s="2480">
+      <c r="KD6" t="s" s="2514">
+        <v>77</v>
+      </c>
+      <c r="KE6" t="s" s="2515">
         <v>66</v>
       </c>
-      <c r="KG6" t="s" s="2481">
+      <c r="KF6" t="s" s="2516">
         <v>67</v>
       </c>
-      <c r="KH6" t="s" s="2482">
+      <c r="KG6" t="s" s="2517">
         <v>68</v>
       </c>
-      <c r="KI6" t="s" s="2483">
+      <c r="KH6" t="s" s="2518">
         <v>69</v>
       </c>
-      <c r="KJ6" t="s" s="2484">
+      <c r="KI6" t="s" s="2519">
         <v>70</v>
       </c>
-      <c r="KK6" t="s" s="2485">
+      <c r="KJ6" t="s" s="2520">
         <v>71</v>
       </c>
-      <c r="KL6" t="s" s="2486">
+      <c r="KK6" t="s" s="2521">
         <v>72</v>
       </c>
-      <c r="KM6" t="s" s="2487">
+      <c r="KL6" t="s" s="2522">
         <v>73</v>
       </c>
-      <c r="KN6" t="s" s="2488">
+      <c r="KM6" t="s" s="2523">
         <v>74</v>
       </c>
-      <c r="KO6" t="s" s="2489">
+      <c r="KN6" t="s" s="2524">
         <v>75</v>
       </c>
-      <c r="KP6" t="s" s="2490">
+      <c r="KO6" t="s" s="2525">
         <v>76</v>
       </c>
-      <c r="KQ6" t="s" s="2491">
-        <v>65</v>
-      </c>
-      <c r="KR6" t="s" s="2492">
+      <c r="KP6" t="s" s="2526">
+        <v>77</v>
+      </c>
+      <c r="KQ6" t="s" s="2527">
         <v>66</v>
       </c>
-      <c r="KS6" t="s" s="2493">
+      <c r="KR6" t="s" s="2528">
         <v>67</v>
       </c>
-      <c r="KT6" t="s" s="2494">
+      <c r="KS6" t="s" s="2529">
         <v>68</v>
       </c>
-      <c r="KU6" t="s" s="2495">
+      <c r="KT6" t="s" s="2530">
         <v>69</v>
       </c>
-      <c r="KV6" t="s" s="2496">
+      <c r="KU6" t="s" s="2531">
         <v>70</v>
       </c>
-      <c r="KW6" t="s" s="2497">
+      <c r="KV6" t="s" s="2532">
         <v>71</v>
       </c>
-      <c r="KX6" t="s" s="2498">
+      <c r="KW6" t="s" s="2533">
         <v>72</v>
       </c>
-      <c r="KY6" t="s" s="2499">
+      <c r="KX6" t="s" s="2534">
         <v>73</v>
       </c>
-      <c r="KZ6" t="s" s="2500">
+      <c r="KY6" t="s" s="2535">
         <v>74</v>
       </c>
-      <c r="LA6" t="s" s="2501">
+      <c r="KZ6" t="s" s="2536">
         <v>75</v>
       </c>
-      <c r="LB6" t="s" s="2502">
+      <c r="LA6" t="s" s="2537">
         <v>76</v>
       </c>
-      <c r="LC6" t="s" s="2503">
-        <v>65</v>
-      </c>
-      <c r="LD6" t="s" s="2504">
+      <c r="LB6" t="s" s="2538">
+        <v>77</v>
+      </c>
+      <c r="LC6" t="s" s="2539">
         <v>66</v>
       </c>
-      <c r="LE6" t="s" s="2505">
+      <c r="LD6" t="s" s="2540">
         <v>67</v>
       </c>
-      <c r="LF6" t="s" s="2506">
+      <c r="LE6" t="s" s="2541">
         <v>68</v>
       </c>
-      <c r="LG6" t="s" s="2507">
+      <c r="LF6" t="s" s="2542">
         <v>69</v>
       </c>
-      <c r="LH6" t="s" s="2508">
+      <c r="LG6" t="s" s="2543">
         <v>70</v>
       </c>
-      <c r="LI6" t="s" s="2509">
+      <c r="LH6" t="s" s="2544">
         <v>71</v>
       </c>
-      <c r="LJ6" t="s" s="2510">
+      <c r="LI6" t="s" s="2545">
         <v>72</v>
       </c>
-      <c r="LK6" t="s" s="2511">
+      <c r="LJ6" t="s" s="2546">
         <v>73</v>
       </c>
-      <c r="LL6" t="s" s="2512">
+      <c r="LK6" t="s" s="2547">
         <v>74</v>
       </c>
-      <c r="LM6" t="s" s="2513">
+      <c r="LL6" t="s" s="2548">
         <v>75</v>
       </c>
-      <c r="LN6" t="s" s="2514">
+      <c r="LM6" t="s" s="2549">
         <v>76</v>
       </c>
-      <c r="LO6" t="s" s="2515">
-        <v>65</v>
-      </c>
-      <c r="LP6" t="s" s="2516">
+      <c r="LN6" t="s" s="2550">
+        <v>77</v>
+      </c>
+      <c r="LO6" t="s" s="2551">
         <v>66</v>
       </c>
-      <c r="LQ6" t="s" s="2517">
+      <c r="LP6" t="s" s="2552">
         <v>67</v>
       </c>
-      <c r="LR6" t="s" s="2518">
+      <c r="LQ6" t="s" s="2553">
         <v>68</v>
       </c>
-      <c r="LS6" t="s" s="2519">
+      <c r="LR6" t="s" s="2554">
         <v>69</v>
       </c>
-      <c r="LT6" t="s" s="2520">
+      <c r="LS6" t="s" s="2555">
         <v>70</v>
       </c>
-      <c r="LU6" t="s" s="2521">
+      <c r="LT6" t="s" s="2556">
         <v>71</v>
       </c>
-      <c r="LV6" t="s" s="2522">
+      <c r="LU6" t="s" s="2557">
         <v>72</v>
       </c>
-      <c r="LW6" t="s" s="2523">
+      <c r="LV6" t="s" s="2558">
         <v>73</v>
       </c>
-      <c r="LX6" t="s" s="2524">
+      <c r="LW6" t="s" s="2559">
         <v>74</v>
       </c>
-      <c r="LY6" t="s" s="2525">
+      <c r="LX6" t="s" s="2560">
         <v>75</v>
       </c>
-      <c r="LZ6" t="s" s="2526">
+      <c r="LY6" t="s" s="2561">
         <v>76</v>
       </c>
-      <c r="MA6" t="s" s="2527">
-        <v>65</v>
-      </c>
-      <c r="MB6" t="s" s="2528">
+      <c r="LZ6" t="s" s="2562">
+        <v>77</v>
+      </c>
+      <c r="MA6" t="s" s="2563">
         <v>66</v>
       </c>
-      <c r="MC6" t="s" s="2529">
+      <c r="MB6" t="s" s="2564">
         <v>67</v>
       </c>
-      <c r="MD6" t="s" s="2530">
+      <c r="MC6" t="s" s="2565">
         <v>68</v>
       </c>
-      <c r="ME6" t="s" s="2531">
+      <c r="MD6" t="s" s="2566">
         <v>69</v>
       </c>
-      <c r="MF6" t="s" s="2532">
+      <c r="ME6" t="s" s="2567">
         <v>70</v>
       </c>
-      <c r="MG6" t="s" s="2533">
+      <c r="MF6" t="s" s="2568">
         <v>71</v>
       </c>
-      <c r="MH6" t="s" s="2534">
+      <c r="MG6" t="s" s="2569">
         <v>72</v>
       </c>
-      <c r="MI6" t="s" s="2535">
+      <c r="MH6" t="s" s="2570">
         <v>73</v>
       </c>
-      <c r="MJ6" t="s" s="2536">
+      <c r="MI6" t="s" s="2571">
         <v>74</v>
       </c>
-      <c r="MK6" t="s" s="2537">
+      <c r="MJ6" t="s" s="2572">
         <v>75</v>
       </c>
-      <c r="ML6" t="s" s="2538">
+      <c r="MK6" t="s" s="2573">
         <v>76</v>
       </c>
-      <c r="MM6" t="s" s="2539">
-        <v>65</v>
-      </c>
-      <c r="MN6" t="s" s="2540">
+      <c r="ML6" t="s" s="2574">
+        <v>77</v>
+      </c>
+      <c r="MM6" t="s" s="2575">
         <v>66</v>
       </c>
-      <c r="MO6" t="s" s="2541">
+      <c r="MN6" t="s" s="2576">
         <v>67</v>
       </c>
-      <c r="MP6" t="s" s="2542">
+      <c r="MO6" t="s" s="2577">
         <v>68</v>
       </c>
-      <c r="MQ6" t="s" s="2543">
+      <c r="MP6" t="s" s="2578">
         <v>69</v>
       </c>
-      <c r="MR6" t="s" s="2544">
+      <c r="MQ6" t="s" s="2579">
         <v>70</v>
       </c>
-      <c r="MS6" t="s" s="2545">
+      <c r="MR6" t="s" s="2580">
         <v>71</v>
       </c>
-      <c r="MT6" t="s" s="2546">
+      <c r="MS6" t="s" s="2581">
         <v>72</v>
       </c>
-      <c r="MU6" t="s" s="2547">
+      <c r="MT6" t="s" s="2582">
         <v>73</v>
       </c>
-      <c r="MV6" t="s" s="2548">
+      <c r="MU6" t="s" s="2583">
         <v>74</v>
       </c>
-      <c r="MW6" t="s" s="2549">
+      <c r="MV6" t="s" s="2584">
         <v>75</v>
       </c>
-      <c r="MX6" t="s" s="2550">
+      <c r="MW6" t="s" s="2585">
         <v>76</v>
       </c>
-      <c r="MY6" t="s" s="2551">
-        <v>65</v>
-      </c>
-      <c r="MZ6" t="s" s="2552">
+      <c r="MX6" t="s" s="2586">
+        <v>77</v>
+      </c>
+      <c r="MY6" t="s" s="2587">
         <v>66</v>
       </c>
-      <c r="NA6" t="s" s="2553">
+      <c r="MZ6" t="s" s="2588">
         <v>67</v>
       </c>
-      <c r="NB6" t="s" s="2554">
+      <c r="NA6" t="s" s="2589">
         <v>68</v>
       </c>
-      <c r="NC6" t="s" s="2555">
+      <c r="NB6" t="s" s="2590">
         <v>69</v>
       </c>
-      <c r="ND6" t="s" s="2556">
+      <c r="NC6" t="s" s="2591">
         <v>70</v>
       </c>
-      <c r="NE6" t="s" s="2557">
+      <c r="ND6" t="s" s="2592">
         <v>71</v>
       </c>
-      <c r="NF6" t="s" s="2558">
+      <c r="NE6" t="s" s="2593">
         <v>72</v>
       </c>
-      <c r="NG6" t="s" s="2559">
+      <c r="NF6" t="s" s="2594">
         <v>73</v>
       </c>
-      <c r="NH6" t="s" s="2560">
+      <c r="NG6" t="s" s="2595">
         <v>74</v>
       </c>
-      <c r="NI6" t="s" s="2561">
+      <c r="NH6" t="s" s="2596">
         <v>75</v>
       </c>
-      <c r="NJ6" t="s" s="2562">
+      <c r="NI6" t="s" s="2597">
         <v>76</v>
       </c>
-      <c r="NK6" t="s" s="2563">
-        <v>65</v>
-      </c>
-      <c r="NL6" t="s" s="2564">
+      <c r="NJ6" t="s" s="2598">
+        <v>77</v>
+      </c>
+      <c r="NK6" t="s" s="2599">
         <v>66</v>
       </c>
-      <c r="NM6" t="s" s="2565">
+      <c r="NL6" t="s" s="2600">
         <v>67</v>
       </c>
-      <c r="NN6" t="s" s="2566">
+      <c r="NM6" t="s" s="2601">
         <v>68</v>
       </c>
-      <c r="NO6" t="s" s="2567">
+      <c r="NN6" t="s" s="2602">
         <v>69</v>
       </c>
-      <c r="NP6" t="s" s="2568">
+      <c r="NO6" t="s" s="2603">
         <v>70</v>
       </c>
-      <c r="NQ6" t="s" s="2569">
+      <c r="NP6" t="s" s="2604">
         <v>71</v>
       </c>
-      <c r="NR6" t="s" s="2570">
+      <c r="NQ6" t="s" s="2605">
         <v>72</v>
       </c>
-      <c r="NS6" t="s" s="2571">
+      <c r="NR6" t="s" s="2606">
         <v>73</v>
       </c>
-      <c r="NT6" t="s" s="2572">
+      <c r="NS6" t="s" s="2607">
         <v>74</v>
       </c>
-      <c r="NU6" t="s" s="2573">
+      <c r="NT6" t="s" s="2608">
         <v>75</v>
       </c>
-      <c r="NV6" t="s" s="2574">
+      <c r="NU6" t="s" s="2609">
         <v>76</v>
       </c>
-      <c r="NW6" t="s" s="2575">
-        <v>65</v>
-      </c>
-      <c r="NX6" t="s" s="2576">
+      <c r="NV6" t="s" s="2610">
+        <v>77</v>
+      </c>
+      <c r="NW6" t="s" s="2611">
         <v>66</v>
       </c>
-      <c r="NY6" t="s" s="2577">
+      <c r="NX6" t="s" s="2612">
         <v>67</v>
       </c>
-      <c r="NZ6" t="s" s="2578">
+      <c r="NY6" t="s" s="2613">
         <v>68</v>
       </c>
-      <c r="OA6" t="s" s="2579">
+      <c r="NZ6" t="s" s="2614">
         <v>69</v>
       </c>
-      <c r="OB6" t="s" s="2580">
+      <c r="OA6" t="s" s="2615">
         <v>70</v>
       </c>
-      <c r="OC6" t="s" s="2581">
+      <c r="OB6" t="s" s="2616">
         <v>71</v>
       </c>
-      <c r="OD6" t="s" s="2582">
+      <c r="OC6" t="s" s="2617">
         <v>72</v>
       </c>
-      <c r="OE6" t="s" s="2583">
+      <c r="OD6" t="s" s="2618">
         <v>73</v>
       </c>
-      <c r="OF6" t="s" s="2584">
+      <c r="OE6" t="s" s="2619">
         <v>74</v>
       </c>
-      <c r="OG6" t="s" s="2585">
+      <c r="OF6" t="s" s="2620">
         <v>75</v>
       </c>
-      <c r="OH6" t="s" s="2586">
+      <c r="OG6" t="s" s="2621">
         <v>76</v>
       </c>
-      <c r="OI6" t="s" s="2587">
-        <v>65</v>
-      </c>
-      <c r="OJ6" t="s" s="2588">
+      <c r="OH6" t="s" s="2622">
+        <v>77</v>
+      </c>
+      <c r="OI6" t="s" s="2623">
         <v>66</v>
       </c>
-      <c r="OK6" t="s" s="2589">
+      <c r="OJ6" t="s" s="2624">
         <v>67</v>
       </c>
-      <c r="OL6" t="s" s="2590">
+      <c r="OK6" t="s" s="2625">
         <v>68</v>
       </c>
-      <c r="OM6" t="s" s="2591">
+      <c r="OL6" t="s" s="2626">
         <v>69</v>
       </c>
-      <c r="ON6" t="s" s="2592">
+      <c r="OM6" t="s" s="2627">
         <v>70</v>
       </c>
-      <c r="OO6" t="s" s="2593">
+      <c r="ON6" t="s" s="2628">
         <v>71</v>
       </c>
-      <c r="OP6" t="s" s="2594">
+      <c r="OO6" t="s" s="2629">
         <v>72</v>
       </c>
-      <c r="OQ6" t="s" s="2595">
+      <c r="OP6" t="s" s="2630">
         <v>73</v>
       </c>
-      <c r="OR6" t="s" s="2596">
+      <c r="OQ6" t="s" s="2631">
         <v>74</v>
       </c>
-      <c r="OS6" t="s" s="2597">
+      <c r="OR6" t="s" s="2632">
         <v>75</v>
       </c>
-      <c r="OT6" t="s" s="2598">
+      <c r="OS6" t="s" s="2633">
         <v>76</v>
       </c>
-      <c r="OU6" t="s" s="2599">
-        <v>65</v>
-      </c>
-      <c r="OV6" t="s" s="2600">
+      <c r="OT6" t="s" s="2634">
+        <v>77</v>
+      </c>
+      <c r="OU6" t="s" s="2635">
         <v>66</v>
       </c>
-      <c r="OW6" t="s" s="2601">
+      <c r="OV6" t="s" s="2636">
         <v>67</v>
       </c>
-      <c r="OX6" t="s" s="2602">
+      <c r="OW6" t="s" s="2637">
         <v>68</v>
       </c>
-      <c r="OY6" t="s" s="2603">
+      <c r="OX6" t="s" s="2638">
         <v>69</v>
       </c>
-      <c r="OZ6" t="s" s="2604">
+      <c r="OY6" t="s" s="2639">
         <v>70</v>
       </c>
-      <c r="PA6" t="s" s="2605">
+      <c r="OZ6" t="s" s="2640">
         <v>71</v>
       </c>
-      <c r="PB6" t="s" s="2606">
+      <c r="PA6" t="s" s="2641">
         <v>72</v>
       </c>
-      <c r="PC6" t="s" s="2607">
+      <c r="PB6" t="s" s="2642">
         <v>73</v>
       </c>
-      <c r="PD6" t="s" s="2608">
+      <c r="PC6" t="s" s="2643">
         <v>74</v>
       </c>
-      <c r="PE6" t="s" s="2609">
+      <c r="PD6" t="s" s="2644">
         <v>75</v>
       </c>
-      <c r="PF6" t="s" s="2610">
+      <c r="PE6" t="s" s="2645">
         <v>76</v>
       </c>
-      <c r="PG6" t="s" s="2611">
-        <v>65</v>
-      </c>
-      <c r="PH6" t="s" s="2612">
+      <c r="PF6" t="s" s="2646">
+        <v>77</v>
+      </c>
+      <c r="PG6" t="s" s="2647">
         <v>66</v>
       </c>
-      <c r="PI6" t="s" s="2613">
+      <c r="PH6" t="s" s="2648">
         <v>67</v>
       </c>
-      <c r="PJ6" t="s" s="2614">
+      <c r="PI6" t="s" s="2649">
         <v>68</v>
       </c>
-      <c r="PK6" t="s" s="2615">
+      <c r="PJ6" t="s" s="2650">
         <v>69</v>
       </c>
-      <c r="PL6" t="s" s="2616">
+      <c r="PK6" t="s" s="2651">
         <v>70</v>
       </c>
-      <c r="PM6" t="s" s="2617">
+      <c r="PL6" t="s" s="2652">
         <v>71</v>
       </c>
-      <c r="PN6" t="s" s="2618">
+      <c r="PM6" t="s" s="2653">
         <v>72</v>
       </c>
-      <c r="PO6" t="s" s="2619">
+      <c r="PN6" t="s" s="2654">
         <v>73</v>
       </c>
-      <c r="PP6" t="s" s="2620">
+      <c r="PO6" t="s" s="2655">
         <v>74</v>
       </c>
-      <c r="PQ6" t="s" s="2621">
+      <c r="PP6" t="s" s="2656">
         <v>75</v>
       </c>
-      <c r="PR6" t="s" s="2622">
+      <c r="PQ6" t="s" s="2657">
         <v>76</v>
       </c>
-      <c r="PS6" t="s" s="2623">
-        <v>65</v>
-      </c>
-      <c r="PT6" t="s" s="2624">
+      <c r="PR6" t="s" s="2658">
+        <v>77</v>
+      </c>
+      <c r="PS6" t="s" s="2659">
         <v>66</v>
       </c>
-      <c r="PU6" t="s" s="2625">
+      <c r="PT6" t="s" s="2660">
         <v>67</v>
       </c>
-      <c r="PV6" t="s" s="2626">
+      <c r="PU6" t="s" s="2661">
         <v>68</v>
       </c>
-      <c r="PW6" t="s" s="2627">
+      <c r="PV6" t="s" s="2662">
         <v>69</v>
       </c>
-      <c r="PX6" t="s" s="2628">
+      <c r="PW6" t="s" s="2663">
         <v>70</v>
       </c>
-      <c r="PY6" t="s" s="2629">
+      <c r="PX6" t="s" s="2664">
         <v>71</v>
       </c>
-      <c r="PZ6" t="s" s="2630">
+      <c r="PY6" t="s" s="2665">
         <v>72</v>
       </c>
-      <c r="QA6" t="s" s="2631">
+      <c r="PZ6" t="s" s="2666">
         <v>73</v>
       </c>
-      <c r="QB6" t="s" s="2632">
+      <c r="QA6" t="s" s="2667">
         <v>74</v>
       </c>
-      <c r="QC6" t="s" s="2633">
+      <c r="QB6" t="s" s="2668">
         <v>75</v>
       </c>
-      <c r="QD6" t="s" s="2634">
+      <c r="QC6" t="s" s="2669">
         <v>76</v>
       </c>
-      <c r="QE6" t="s" s="2635">
-        <v>65</v>
-      </c>
-      <c r="QF6" t="s" s="2636">
+      <c r="QD6" t="s" s="2670">
+        <v>77</v>
+      </c>
+      <c r="QE6" t="s" s="2671">
         <v>66</v>
       </c>
-      <c r="QG6" t="s" s="2637">
+      <c r="QF6" t="s" s="2672">
         <v>67</v>
       </c>
-      <c r="QH6" t="s" s="2638">
+      <c r="QG6" t="s" s="2673">
         <v>68</v>
       </c>
-      <c r="QI6" t="s" s="2639">
+      <c r="QH6" t="s" s="2674">
         <v>69</v>
       </c>
-      <c r="QJ6" t="s" s="2640">
+      <c r="QI6" t="s" s="2675">
         <v>70</v>
       </c>
-      <c r="QK6" t="s" s="2641">
+      <c r="QJ6" t="s" s="2676">
         <v>71</v>
       </c>
-      <c r="QL6" t="s" s="2642">
+      <c r="QK6" t="s" s="2677">
         <v>72</v>
       </c>
-      <c r="QM6" t="s" s="2643">
+      <c r="QL6" t="s" s="2678">
         <v>73</v>
       </c>
-      <c r="QN6" t="s" s="2644">
+      <c r="QM6" t="s" s="2679">
         <v>74</v>
       </c>
-      <c r="QO6" t="s" s="2645">
+      <c r="QN6" t="s" s="2680">
         <v>75</v>
       </c>
-      <c r="QP6" t="s" s="2646">
+      <c r="QO6" t="s" s="2681">
         <v>76</v>
       </c>
-      <c r="QQ6" t="s" s="2647">
-        <v>65</v>
-      </c>
-      <c r="QR6" t="s" s="2648">
+      <c r="QP6" t="s" s="2682">
+        <v>77</v>
+      </c>
+      <c r="QQ6" t="s" s="2683">
         <v>66</v>
       </c>
-      <c r="QS6" t="s" s="2649">
+      <c r="QR6" t="s" s="2684">
         <v>67</v>
       </c>
-      <c r="QT6" t="s" s="2650">
+      <c r="QS6" t="s" s="2685">
         <v>68</v>
       </c>
-      <c r="QU6" t="s" s="2651">
+      <c r="QT6" t="s" s="2686">
         <v>69</v>
       </c>
-      <c r="QV6" t="s" s="2652">
+      <c r="QU6" t="s" s="2687">
         <v>70</v>
       </c>
-      <c r="QW6" t="s" s="2653">
+      <c r="QV6" t="s" s="2688">
         <v>71</v>
       </c>
-      <c r="QX6" t="s" s="2654">
+      <c r="QW6" t="s" s="2689">
         <v>72</v>
       </c>
-      <c r="QY6" t="s" s="2655">
+      <c r="QX6" t="s" s="2690">
         <v>73</v>
       </c>
-      <c r="QZ6" t="s" s="2656">
+      <c r="QY6" t="s" s="2691">
         <v>74</v>
       </c>
-      <c r="RA6" t="s" s="2657">
+      <c r="QZ6" t="s" s="2692">
         <v>75</v>
       </c>
-      <c r="RB6" t="s" s="2658">
+      <c r="RA6" t="s" s="2693">
         <v>76</v>
       </c>
-      <c r="RC6" t="s" s="2659">
-        <v>65</v>
-      </c>
-      <c r="RD6" t="s" s="2660">
+      <c r="RB6" t="s" s="2694">
+        <v>77</v>
+      </c>
+      <c r="RC6" t="s" s="2695">
         <v>66</v>
       </c>
-      <c r="RE6" t="s" s="2661">
+      <c r="RD6" t="s" s="2696">
         <v>67</v>
       </c>
-      <c r="RF6" t="s" s="2662">
+      <c r="RE6" t="s" s="2697">
         <v>68</v>
       </c>
-      <c r="RG6" t="s" s="2663">
+      <c r="RF6" t="s" s="2698">
         <v>69</v>
       </c>
-      <c r="RH6" t="s" s="2664">
+      <c r="RG6" t="s" s="2699">
         <v>70</v>
       </c>
-      <c r="RI6" t="s" s="2665">
+      <c r="RH6" t="s" s="2700">
         <v>71</v>
       </c>
-      <c r="RJ6" t="s" s="2666">
+      <c r="RI6" t="s" s="2701">
         <v>72</v>
       </c>
-      <c r="RK6" t="s" s="2667">
+      <c r="RJ6" t="s" s="2702">
         <v>73</v>
       </c>
-      <c r="RL6" t="s" s="2668">
+      <c r="RK6" t="s" s="2703">
         <v>74</v>
       </c>
-      <c r="RM6" t="s" s="2669">
+      <c r="RL6" t="s" s="2704">
         <v>75</v>
       </c>
-      <c r="RN6" t="s" s="2670">
+      <c r="RM6" t="s" s="2705">
         <v>76</v>
       </c>
-      <c r="RO6" t="s" s="2671">
-        <v>65</v>
-      </c>
-      <c r="RP6" t="s" s="2672">
+      <c r="RN6" t="s" s="2706">
+        <v>77</v>
+      </c>
+      <c r="RO6" t="s" s="2707">
         <v>66</v>
       </c>
-      <c r="RQ6" t="s" s="2673">
+      <c r="RP6" t="s" s="2708">
         <v>67</v>
       </c>
-      <c r="RR6" t="s" s="2674">
+      <c r="RQ6" t="s" s="2709">
         <v>68</v>
       </c>
-      <c r="RS6" t="s" s="2675">
+      <c r="RR6" t="s" s="2710">
         <v>69</v>
       </c>
-      <c r="RT6" t="s" s="2676">
+      <c r="RS6" t="s" s="2711">
         <v>70</v>
       </c>
-      <c r="RU6" t="s" s="2677">
+      <c r="RT6" t="s" s="2712">
         <v>71</v>
       </c>
-      <c r="RV6" t="s" s="2678">
+      <c r="RU6" t="s" s="2713">
         <v>72</v>
       </c>
-      <c r="RW6" t="s" s="2679">
+      <c r="RV6" t="s" s="2714">
         <v>73</v>
       </c>
-      <c r="RX6" t="s" s="2680">
+      <c r="RW6" t="s" s="2715">
         <v>74</v>
       </c>
-      <c r="RY6" t="s" s="2681">
+      <c r="RX6" t="s" s="2716">
         <v>75</v>
       </c>
-      <c r="RZ6" t="s" s="2682">
+      <c r="RY6" t="s" s="2717">
         <v>76</v>
       </c>
-      <c r="SA6" t="s" s="2683">
-        <v>65</v>
-      </c>
-      <c r="SB6" t="s" s="2684">
+      <c r="RZ6" t="s" s="2718">
+        <v>77</v>
+      </c>
+      <c r="SA6" t="s" s="2719">
         <v>66</v>
       </c>
-      <c r="SC6" t="s" s="2685">
+      <c r="SB6" t="s" s="2720">
         <v>67</v>
       </c>
-      <c r="SD6" t="s" s="2686">
+      <c r="SC6" t="s" s="2721">
         <v>68</v>
       </c>
-      <c r="SE6" t="s" s="2687">
+      <c r="SD6" t="s" s="2722">
         <v>69</v>
       </c>
-      <c r="SF6" t="s" s="2688">
+      <c r="SE6" t="s" s="2723">
         <v>70</v>
       </c>
-      <c r="SG6" t="s" s="2689">
+      <c r="SF6" t="s" s="2724">
         <v>71</v>
       </c>
-      <c r="SH6" t="s" s="2690">
+      <c r="SG6" t="s" s="2725">
         <v>72</v>
       </c>
-      <c r="SI6" t="s" s="2691">
+      <c r="SH6" t="s" s="2726">
         <v>73</v>
       </c>
-      <c r="SJ6" t="s" s="2692">
+      <c r="SI6" t="s" s="2727">
         <v>74</v>
       </c>
-      <c r="SK6" t="s" s="2693">
+      <c r="SJ6" t="s" s="2728">
         <v>75</v>
       </c>
-      <c r="SL6" t="s" s="2694">
+      <c r="SK6" t="s" s="2729">
         <v>76</v>
       </c>
-      <c r="SM6" t="s" s="2695">
-        <v>65</v>
-      </c>
-      <c r="SN6" t="s" s="2696">
+      <c r="SL6" t="s" s="2730">
+        <v>77</v>
+      </c>
+      <c r="SM6" t="s" s="2731">
         <v>66</v>
       </c>
-      <c r="SO6" t="s" s="2697">
+      <c r="SN6" t="s" s="2732">
         <v>67</v>
       </c>
-      <c r="SP6" t="s" s="2698">
+      <c r="SO6" t="s" s="2733">
         <v>68</v>
       </c>
-      <c r="SQ6" t="s" s="2699">
+      <c r="SP6" t="s" s="2734">
         <v>69</v>
       </c>
-      <c r="SR6" t="s" s="2700">
+      <c r="SQ6" t="s" s="2735">
         <v>70</v>
       </c>
-      <c r="SS6" t="s" s="2701">
+      <c r="SR6" t="s" s="2736">
         <v>71</v>
       </c>
-      <c r="ST6" t="s" s="2702">
+      <c r="SS6" t="s" s="2737">
         <v>72</v>
       </c>
-      <c r="SU6" t="s" s="2703">
+      <c r="ST6" t="s" s="2738">
         <v>73</v>
       </c>
-      <c r="SV6" t="s" s="2704">
+      <c r="SU6" t="s" s="2739">
         <v>74</v>
       </c>
-      <c r="SW6" t="s" s="2705">
+      <c r="SV6" t="s" s="2740">
         <v>75</v>
       </c>
-      <c r="SX6" t="s" s="2706">
+      <c r="SW6" t="s" s="2741">
         <v>76</v>
       </c>
-      <c r="SY6" t="s" s="2707">
-        <v>65</v>
-      </c>
-      <c r="SZ6" t="s" s="2708">
+      <c r="SX6" t="s" s="2742">
+        <v>77</v>
+      </c>
+      <c r="SY6" t="s" s="2743">
         <v>66</v>
       </c>
-      <c r="TA6" t="s" s="2709">
+      <c r="SZ6" t="s" s="2744">
         <v>67</v>
       </c>
-      <c r="TB6" t="s" s="2710">
+      <c r="TA6" t="s" s="2745">
         <v>68</v>
       </c>
-      <c r="TC6" t="s" s="2711">
+      <c r="TB6" t="s" s="2746">
         <v>69</v>
       </c>
-      <c r="TD6" t="s" s="2712">
+      <c r="TC6" t="s" s="2747">
         <v>70</v>
       </c>
-      <c r="TE6" t="s" s="2713">
+      <c r="TD6" t="s" s="2748">
         <v>71</v>
       </c>
-      <c r="TF6" t="s" s="2714">
+      <c r="TE6" t="s" s="2749">
         <v>72</v>
       </c>
-      <c r="TG6" t="s" s="2715">
+      <c r="TF6" t="s" s="2750">
         <v>73</v>
       </c>
-      <c r="TH6" t="s" s="2716">
+      <c r="TG6" t="s" s="2751">
         <v>74</v>
       </c>
-      <c r="TI6" t="s" s="2717">
+      <c r="TH6" t="s" s="2752">
         <v>75</v>
       </c>
-      <c r="TJ6" t="s" s="2718">
+      <c r="TI6" t="s" s="2753">
         <v>76</v>
       </c>
-      <c r="TK6" t="s" s="2719">
-        <v>65</v>
-      </c>
-      <c r="TL6" t="s" s="2720">
+      <c r="TJ6" t="s" s="2754">
+        <v>77</v>
+      </c>
+      <c r="TK6" t="s" s="2755">
         <v>66</v>
       </c>
-      <c r="TM6" t="s" s="2721">
+      <c r="TL6" t="s" s="2756">
         <v>67</v>
       </c>
-      <c r="TN6" t="s" s="2722">
+      <c r="TM6" t="s" s="2757">
         <v>68</v>
       </c>
-      <c r="TO6" t="s" s="2723">
+      <c r="TN6" t="s" s="2758">
         <v>69</v>
       </c>
-      <c r="TP6" t="s" s="2724">
+      <c r="TO6" t="s" s="2759">
         <v>70</v>
       </c>
-      <c r="TQ6" t="s" s="2725">
+      <c r="TP6" t="s" s="2760">
         <v>71</v>
       </c>
-      <c r="TR6" t="s" s="2726">
+      <c r="TQ6" t="s" s="2761">
         <v>72</v>
       </c>
-      <c r="TS6" t="s" s="2727">
+      <c r="TR6" t="s" s="2762">
         <v>73</v>
       </c>
-      <c r="TT6" t="s" s="2728">
+      <c r="TS6" t="s" s="2763">
         <v>74</v>
       </c>
-      <c r="TU6" t="s" s="2729">
+      <c r="TT6" t="s" s="2764">
         <v>75</v>
       </c>
-      <c r="TV6" t="s" s="2730">
+      <c r="TU6" t="s" s="2765">
         <v>76</v>
       </c>
-      <c r="TW6" t="s" s="2731">
-        <v>65</v>
-      </c>
-      <c r="TX6" t="s" s="2732">
+      <c r="TV6" t="s" s="2766">
+        <v>77</v>
+      </c>
+      <c r="TW6" t="s" s="2767">
         <v>66</v>
       </c>
-      <c r="TY6" t="s" s="2733">
+      <c r="TX6" t="s" s="2768">
         <v>67</v>
       </c>
-      <c r="TZ6" t="s" s="2734">
+      <c r="TY6" t="s" s="2769">
         <v>68</v>
       </c>
-      <c r="UA6" t="s" s="2735">
+      <c r="TZ6" t="s" s="2770">
         <v>69</v>
       </c>
-      <c r="UB6" t="s" s="2736">
+      <c r="UA6" t="s" s="2771">
         <v>70</v>
       </c>
-      <c r="UC6" t="s" s="2737">
+      <c r="UB6" t="s" s="2772">
         <v>71</v>
       </c>
-      <c r="UD6" t="s" s="2738">
+      <c r="UC6" t="s" s="2773">
         <v>72</v>
       </c>
-      <c r="UE6" t="s" s="2739">
+      <c r="UD6" t="s" s="2774">
         <v>73</v>
       </c>
-      <c r="UF6" t="s" s="2740">
+      <c r="UE6" t="s" s="2775">
         <v>74</v>
       </c>
-      <c r="UG6" t="s" s="2741">
+      <c r="UF6" t="s" s="2776">
         <v>75</v>
       </c>
-      <c r="UH6" t="s" s="2742">
+      <c r="UG6" t="s" s="2777">
         <v>76</v>
       </c>
-      <c r="UI6" t="s" s="2743">
-        <v>65</v>
-      </c>
-      <c r="UJ6" t="s" s="2744">
+      <c r="UH6" t="s" s="2778">
+        <v>77</v>
+      </c>
+      <c r="UI6" t="s" s="2779">
         <v>66</v>
       </c>
-      <c r="UK6" t="s" s="2745">
+      <c r="UJ6" t="s" s="2780">
         <v>67</v>
       </c>
-      <c r="UL6" t="s" s="2746">
+      <c r="UK6" t="s" s="2781">
         <v>68</v>
       </c>
-      <c r="UM6" t="s" s="2747">
+      <c r="UL6" t="s" s="2782">
         <v>69</v>
       </c>
-      <c r="UN6" t="s" s="2748">
+      <c r="UM6" t="s" s="2783">
         <v>70</v>
       </c>
-      <c r="UO6" t="s" s="2749">
+      <c r="UN6" t="s" s="2784">
         <v>71</v>
       </c>
-      <c r="UP6" t="s" s="2750">
+      <c r="UO6" t="s" s="2785">
         <v>72</v>
       </c>
-      <c r="UQ6" t="s" s="2751">
+      <c r="UP6" t="s" s="2786">
         <v>73</v>
       </c>
-      <c r="UR6" t="s" s="2752">
+      <c r="UQ6" t="s" s="2787">
         <v>74</v>
       </c>
-      <c r="US6" t="s" s="2753">
+      <c r="UR6" t="s" s="2788">
         <v>75</v>
       </c>
-      <c r="UT6" t="s" s="2754">
+      <c r="US6" t="s" s="2789">
         <v>76</v>
       </c>
-      <c r="UU6" t="s" s="2755">
-        <v>65</v>
-      </c>
-      <c r="UV6" t="s" s="2756">
+      <c r="UT6" t="s" s="2790">
+        <v>77</v>
+      </c>
+      <c r="UU6" t="s" s="2791">
         <v>66</v>
       </c>
-      <c r="UW6" t="s" s="2757">
+      <c r="UV6" t="s" s="2792">
         <v>67</v>
       </c>
-      <c r="UX6" t="s" s="2758">
+      <c r="UW6" t="s" s="2793">
         <v>68</v>
       </c>
-      <c r="UY6" t="s" s="2759">
+      <c r="UX6" t="s" s="2794">
         <v>69</v>
       </c>
-      <c r="UZ6" t="s" s="2760">
+      <c r="UY6" t="s" s="2795">
         <v>70</v>
       </c>
-      <c r="VA6" t="s" s="2761">
+      <c r="UZ6" t="s" s="2796">
         <v>71</v>
       </c>
-      <c r="VB6" t="s" s="2762">
+      <c r="VA6" t="s" s="2797">
         <v>72</v>
       </c>
-      <c r="VC6" t="s" s="2763">
+      <c r="VB6" t="s" s="2798">
         <v>73</v>
       </c>
-      <c r="VD6" t="s" s="2764">
+      <c r="VC6" t="s" s="2799">
         <v>74</v>
       </c>
-      <c r="VE6" t="s" s="2765">
+      <c r="VD6" t="s" s="2800">
         <v>75</v>
       </c>
-      <c r="VF6" t="s" s="2766">
+      <c r="VE6" t="s" s="2801">
         <v>76</v>
       </c>
-      <c r="VG6" t="s" s="2767">
-        <v>65</v>
-      </c>
-      <c r="VH6" t="s" s="2768">
+      <c r="VF6" t="s" s="2802">
+        <v>77</v>
+      </c>
+      <c r="VG6" t="s" s="2803">
         <v>66</v>
       </c>
-      <c r="VI6" t="s" s="2769">
+      <c r="VH6" t="s" s="2804">
         <v>67</v>
       </c>
-      <c r="VJ6" t="s" s="2770">
+      <c r="VI6" t="s" s="2805">
         <v>68</v>
       </c>
-      <c r="VK6" t="s" s="2771">
+      <c r="VJ6" t="s" s="2806">
         <v>69</v>
       </c>
-      <c r="VL6" t="s" s="2772">
+      <c r="VK6" t="s" s="2807">
         <v>70</v>
       </c>
-      <c r="VM6" t="s" s="2773">
+      <c r="VL6" t="s" s="2808">
         <v>71</v>
       </c>
-      <c r="VN6" t="s" s="2774">
+      <c r="VM6" t="s" s="2809">
         <v>72</v>
       </c>
-      <c r="VO6" t="s" s="2775">
+      <c r="VN6" t="s" s="2810">
         <v>73</v>
       </c>
-      <c r="VP6" t="s" s="2776">
+      <c r="VO6" t="s" s="2811">
         <v>74</v>
       </c>
-      <c r="VQ6" t="s" s="2777">
+      <c r="VP6" t="s" s="2812">
         <v>75</v>
       </c>
-      <c r="VR6" t="s" s="2778">
+      <c r="VQ6" t="s" s="2813">
         <v>76</v>
       </c>
-      <c r="VS6" t="s" s="2779">
-        <v>65</v>
-      </c>
-      <c r="VT6" t="s" s="2780">
+      <c r="VR6" t="s" s="2814">
+        <v>77</v>
+      </c>
+      <c r="VS6" t="s" s="2815">
         <v>66</v>
       </c>
-      <c r="VU6" t="s" s="2781">
+      <c r="VT6" t="s" s="2816">
         <v>67</v>
       </c>
-      <c r="VV6" t="s" s="2782">
+      <c r="VU6" t="s" s="2817">
         <v>68</v>
       </c>
-      <c r="VW6" t="s" s="2783">
+      <c r="VV6" t="s" s="2818">
         <v>69</v>
       </c>
-      <c r="VX6" t="s" s="2784">
+      <c r="VW6" t="s" s="2819">
         <v>70</v>
       </c>
-      <c r="VY6" t="s" s="2785">
+      <c r="VX6" t="s" s="2820">
         <v>71</v>
       </c>
-      <c r="VZ6" t="s" s="2786">
+      <c r="VY6" t="s" s="2821">
         <v>72</v>
       </c>
-      <c r="WA6" t="s" s="2787">
+      <c r="VZ6" t="s" s="2822">
         <v>73</v>
       </c>
-      <c r="WB6" t="s" s="2788">
+      <c r="WA6" t="s" s="2823">
         <v>74</v>
       </c>
-      <c r="WC6" t="s" s="2789">
+      <c r="WB6" t="s" s="2824">
         <v>75</v>
       </c>
-      <c r="WD6" t="s" s="2790">
+      <c r="WC6" t="s" s="2825">
         <v>76</v>
       </c>
-      <c r="WE6" t="s" s="2791">
-        <v>65</v>
-      </c>
-      <c r="WF6" t="s" s="2792">
+      <c r="WD6" t="s" s="2826">
+        <v>77</v>
+      </c>
+      <c r="WE6" t="s" s="2827">
         <v>66</v>
       </c>
-      <c r="WG6" t="s" s="2793">
+      <c r="WF6" t="s" s="2828">
         <v>67</v>
       </c>
-      <c r="WH6" t="s" s="2794">
+      <c r="WG6" t="s" s="2829">
         <v>68</v>
       </c>
-      <c r="WI6" t="s" s="2795">
+      <c r="WH6" t="s" s="2830">
         <v>69</v>
       </c>
-      <c r="WJ6" t="s" s="2796">
+      <c r="WI6" t="s" s="2831">
         <v>70</v>
       </c>
-      <c r="WK6" t="s" s="2797">
+      <c r="WJ6" t="s" s="2832">
         <v>71</v>
       </c>
-      <c r="WL6" t="s" s="2798">
+      <c r="WK6" t="s" s="2833">
         <v>72</v>
       </c>
-      <c r="WM6" t="s" s="2799">
+      <c r="WL6" t="s" s="2834">
         <v>73</v>
       </c>
-      <c r="WN6" t="s" s="2800">
+      <c r="WM6" t="s" s="2835">
         <v>74</v>
       </c>
-      <c r="WO6" t="s" s="2801">
+      <c r="WN6" t="s" s="2836">
         <v>75</v>
       </c>
-      <c r="WP6" t="s" s="2802">
+      <c r="WO6" t="s" s="2837">
         <v>76</v>
       </c>
-      <c r="WQ6" t="s" s="2803">
-        <v>65</v>
-      </c>
-      <c r="WR6" t="s" s="2804">
+      <c r="WP6" t="s" s="2838">
+        <v>77</v>
+      </c>
+      <c r="WQ6" t="s" s="2839">
         <v>66</v>
       </c>
-      <c r="WS6" t="s" s="2805">
+      <c r="WR6" t="s" s="2840">
         <v>67</v>
       </c>
-      <c r="WT6" t="s" s="2806">
+      <c r="WS6" t="s" s="2841">
         <v>68</v>
       </c>
-      <c r="WU6" t="s" s="2807">
+      <c r="WT6" t="s" s="2842">
         <v>69</v>
       </c>
-      <c r="WV6" t="s" s="2808">
+      <c r="WU6" t="s" s="2843">
         <v>70</v>
       </c>
-      <c r="WW6" t="s" s="2809">
+      <c r="WV6" t="s" s="2844">
         <v>71</v>
       </c>
-      <c r="WX6" t="s" s="2810">
+      <c r="WW6" t="s" s="2845">
         <v>72</v>
       </c>
-      <c r="WY6" t="s" s="2811">
+      <c r="WX6" t="s" s="2846">
         <v>73</v>
       </c>
-      <c r="WZ6" t="s" s="2812">
+      <c r="WY6" t="s" s="2847">
         <v>74</v>
       </c>
-      <c r="XA6" t="s" s="2813">
+      <c r="WZ6" t="s" s="2848">
         <v>75</v>
       </c>
-      <c r="XB6" t="s" s="2814">
+      <c r="XA6" t="s" s="2849">
         <v>76</v>
       </c>
-      <c r="XC6" t="s" s="2815">
-        <v>65</v>
-      </c>
-      <c r="XD6" t="s" s="2816">
+      <c r="XB6" t="s" s="2850">
+        <v>77</v>
+      </c>
+      <c r="XC6" t="s" s="2851">
         <v>66</v>
       </c>
-      <c r="XE6" t="s" s="2817">
+      <c r="XD6" t="s" s="2852">
         <v>67</v>
       </c>
-      <c r="XF6" t="s" s="2818">
+      <c r="XE6" t="s" s="2853">
         <v>68</v>
       </c>
-      <c r="XG6" t="s" s="2819">
+      <c r="XF6" t="s" s="2854">
         <v>69</v>
       </c>
-      <c r="XH6" t="s" s="2820">
+      <c r="XG6" t="s" s="2855">
         <v>70</v>
       </c>
-      <c r="XI6" t="s" s="2821">
+      <c r="XH6" t="s" s="2856">
         <v>71</v>
       </c>
-      <c r="XJ6" t="s" s="2822">
+      <c r="XI6" t="s" s="2857">
         <v>72</v>
       </c>
-      <c r="XK6" t="s" s="2823">
+      <c r="XJ6" t="s" s="2858">
         <v>73</v>
       </c>
-      <c r="XL6" t="s" s="2824">
+      <c r="XK6" t="s" s="2859">
         <v>74</v>
       </c>
-      <c r="XM6" t="s" s="2825">
+      <c r="XL6" t="s" s="2860">
         <v>75</v>
       </c>
-      <c r="XN6" t="s" s="2826">
+      <c r="XM6" t="s" s="2861">
         <v>76</v>
       </c>
-      <c r="XO6" t="s" s="2827">
-        <v>65</v>
-      </c>
-      <c r="XP6" t="s" s="2828">
+      <c r="XN6" t="s" s="2862">
+        <v>77</v>
+      </c>
+      <c r="XO6" t="s" s="2863">
         <v>66</v>
       </c>
-      <c r="XQ6" t="s" s="2829">
+      <c r="XP6" t="s" s="2864">
         <v>67</v>
       </c>
-      <c r="XR6" t="s" s="2830">
+      <c r="XQ6" t="s" s="2865">
         <v>68</v>
       </c>
-      <c r="XS6" t="s" s="2831">
+      <c r="XR6" t="s" s="2866">
         <v>69</v>
       </c>
-      <c r="XT6" t="s" s="2832">
+      <c r="XS6" t="s" s="2867">
         <v>70</v>
       </c>
-      <c r="XU6" t="s" s="2833">
+      <c r="XT6" t="s" s="2868">
         <v>71</v>
       </c>
-      <c r="XV6" t="s" s="2834">
+      <c r="XU6" t="s" s="2869">
         <v>72</v>
       </c>
-      <c r="XW6" t="s" s="2835">
+      <c r="XV6" t="s" s="2870">
         <v>73</v>
       </c>
-      <c r="XX6" t="s" s="2836">
+      <c r="XW6" t="s" s="2871">
         <v>74</v>
       </c>
-      <c r="XY6" t="s" s="2837">
+      <c r="XX6" t="s" s="2872">
         <v>75</v>
       </c>
-      <c r="XZ6" t="s" s="2838">
+      <c r="XY6" t="s" s="2873">
         <v>76</v>
       </c>
-      <c r="YA6" t="s" s="2839">
-        <v>65</v>
-      </c>
-      <c r="YB6" t="s" s="2840">
+      <c r="XZ6" t="s" s="2874">
+        <v>77</v>
+      </c>
+      <c r="YA6" t="s" s="2875">
         <v>66</v>
       </c>
-      <c r="YC6" t="s" s="2841">
+      <c r="YB6" t="s" s="2876">
         <v>67</v>
       </c>
-      <c r="YD6" t="s" s="2842">
+      <c r="YC6" t="s" s="2877">
         <v>68</v>
       </c>
-      <c r="YE6" t="s" s="2843">
+      <c r="YD6" t="s" s="2878">
         <v>69</v>
       </c>
-      <c r="YF6" t="s" s="2844">
+      <c r="YE6" t="s" s="2879">
         <v>70</v>
       </c>
-      <c r="YG6" t="s" s="2845">
+      <c r="YF6" t="s" s="2880">
         <v>71</v>
       </c>
-      <c r="YH6" t="s" s="2846">
+      <c r="YG6" t="s" s="2881">
         <v>72</v>
       </c>
-      <c r="YI6" t="s" s="2847">
+      <c r="YH6" t="s" s="2882">
         <v>73</v>
       </c>
-      <c r="YJ6" t="s" s="2848">
+      <c r="YI6" t="s" s="2883">
         <v>74</v>
       </c>
-      <c r="YK6" t="s" s="2849">
+      <c r="YJ6" t="s" s="2884">
         <v>75</v>
       </c>
-      <c r="YL6" t="s" s="2850">
+      <c r="YK6" t="s" s="2885">
         <v>76</v>
       </c>
-      <c r="YM6" t="s" s="2851">
-        <v>65</v>
-      </c>
-      <c r="YN6" t="s" s="2852">
+      <c r="YL6" t="s" s="2886">
+        <v>77</v>
+      </c>
+      <c r="YM6" t="s" s="2887">
         <v>66</v>
       </c>
-      <c r="YO6" t="s" s="2853">
+      <c r="YN6" t="s" s="2888">
         <v>67</v>
       </c>
-      <c r="YP6" t="s" s="2854">
+      <c r="YO6" t="s" s="2889">
         <v>68</v>
       </c>
-      <c r="YQ6" t="s" s="2855">
+      <c r="YP6" t="s" s="2890">
         <v>69</v>
       </c>
-      <c r="YR6" t="s" s="2856">
+      <c r="YQ6" t="s" s="2891">
         <v>70</v>
       </c>
-      <c r="YS6" t="s" s="2857">
+      <c r="YR6" t="s" s="2892">
         <v>71</v>
       </c>
-      <c r="YT6" t="s" s="2858">
+      <c r="YS6" t="s" s="2893">
         <v>72</v>
       </c>
-      <c r="YU6" t="s" s="2859">
+      <c r="YT6" t="s" s="2894">
         <v>73</v>
       </c>
-      <c r="YV6" t="s" s="2860">
+      <c r="YU6" t="s" s="2895">
         <v>74</v>
       </c>
-      <c r="YW6" t="s" s="2861">
+      <c r="YV6" t="s" s="2896">
         <v>75</v>
       </c>
-      <c r="YX6" t="s" s="2862">
+      <c r="YW6" t="s" s="2897">
         <v>76</v>
       </c>
-      <c r="YY6" t="s" s="2863">
-        <v>65</v>
-      </c>
-      <c r="YZ6" t="s" s="2864">
+      <c r="YX6" t="s" s="2898">
+        <v>77</v>
+      </c>
+      <c r="YY6" t="s" s="2899">
         <v>66</v>
       </c>
-      <c r="ZA6" t="s" s="2865">
+      <c r="YZ6" t="s" s="2900">
         <v>67</v>
       </c>
-      <c r="ZB6" t="s" s="2866">
+      <c r="ZA6" t="s" s="2901">
         <v>68</v>
       </c>
-      <c r="ZC6" t="s" s="2867">
+      <c r="ZB6" t="s" s="2902">
         <v>69</v>
       </c>
-      <c r="ZD6" t="s" s="2868">
+      <c r="ZC6" t="s" s="2903">
         <v>70</v>
       </c>
-      <c r="ZE6" t="s" s="2869">
+      <c r="ZD6" t="s" s="2904">
         <v>71</v>
       </c>
-      <c r="ZF6" t="s" s="2870">
+      <c r="ZE6" t="s" s="2905">
         <v>72</v>
       </c>
-      <c r="ZG6" t="s" s="2871">
+      <c r="ZF6" t="s" s="2906">
         <v>73</v>
       </c>
-      <c r="ZH6" t="s" s="2872">
+      <c r="ZG6" t="s" s="2907">
         <v>74</v>
       </c>
-      <c r="ZI6" t="s" s="2873">
+      <c r="ZH6" t="s" s="2908">
         <v>75</v>
       </c>
-      <c r="ZJ6" t="s" s="2874">
+      <c r="ZI6" t="s" s="2909">
         <v>76</v>
       </c>
-      <c r="ZK6" t="s" s="2875">
-        <v>65</v>
-      </c>
-      <c r="ZL6" t="s" s="2876">
+      <c r="ZJ6" t="s" s="2910">
+        <v>77</v>
+      </c>
+      <c r="ZK6" t="s" s="2911">
         <v>66</v>
       </c>
-      <c r="ZM6" t="s" s="2877">
+      <c r="ZL6" t="s" s="2912">
         <v>67</v>
       </c>
-      <c r="ZN6" t="s" s="2878">
+      <c r="ZM6" t="s" s="2913">
         <v>68</v>
       </c>
-      <c r="ZO6" t="s" s="2879">
+      <c r="ZN6" t="s" s="2914">
         <v>69</v>
       </c>
-      <c r="ZP6" t="s" s="2880">
+      <c r="ZO6" t="s" s="2915">
         <v>70</v>
       </c>
-      <c r="ZQ6" t="s" s="2881">
+      <c r="ZP6" t="s" s="2916">
         <v>71</v>
       </c>
-      <c r="ZR6" t="s" s="2882">
+      <c r="ZQ6" t="s" s="2917">
         <v>72</v>
       </c>
-      <c r="ZS6" t="s" s="2883">
+      <c r="ZR6" t="s" s="2918">
         <v>73</v>
       </c>
-      <c r="ZT6" t="s" s="2884">
+      <c r="ZS6" t="s" s="2919">
         <v>74</v>
       </c>
-      <c r="ZU6" t="s" s="2885">
+      <c r="ZT6" t="s" s="2920">
         <v>75</v>
       </c>
-      <c r="ZV6" t="s" s="2886">
+      <c r="ZU6" t="s" s="2921">
         <v>76</v>
       </c>
-      <c r="ZW6" t="s" s="2887">
-        <v>65</v>
-      </c>
-      <c r="ZX6" t="s" s="2888">
+      <c r="ZV6" t="s" s="2922">
+        <v>77</v>
+      </c>
+      <c r="ZW6" t="s" s="2923">
         <v>66</v>
       </c>
-      <c r="ZY6" t="s" s="2889">
+      <c r="ZX6" t="s" s="2924">
         <v>67</v>
       </c>
-      <c r="ZZ6" t="s" s="2890">
+      <c r="ZY6" t="s" s="2925">
         <v>68</v>
       </c>
-      <c r="AAA6" t="s" s="2891">
+      <c r="ZZ6" t="s" s="2926">
         <v>69</v>
       </c>
-      <c r="AAB6" t="s" s="2892">
+      <c r="AAA6" t="s" s="2927">
         <v>70</v>
       </c>
-      <c r="AAC6" t="s" s="2893">
+      <c r="AAB6" t="s" s="2928">
         <v>71</v>
       </c>
-      <c r="AAD6" t="s" s="2894">
+      <c r="AAC6" t="s" s="2929">
         <v>72</v>
       </c>
-      <c r="AAE6" t="s" s="2895">
+      <c r="AAD6" t="s" s="2930">
         <v>73</v>
       </c>
-      <c r="AAF6" t="s" s="2896">
+      <c r="AAE6" t="s" s="2931">
         <v>74</v>
       </c>
-      <c r="AAG6" t="s" s="2897">
+      <c r="AAF6" t="s" s="2932">
         <v>75</v>
       </c>
-      <c r="AAH6" t="s" s="2898">
+      <c r="AAG6" t="s" s="2933">
         <v>76</v>
       </c>
-      <c r="AAI6" t="s" s="2899">
-        <v>65</v>
-      </c>
-      <c r="AAJ6" t="s" s="2900">
+      <c r="AAH6" t="s" s="2934">
+        <v>77</v>
+      </c>
+      <c r="AAI6" t="s" s="2935">
         <v>66</v>
       </c>
-      <c r="AAK6" t="s" s="2901">
+      <c r="AAJ6" t="s" s="2936">
         <v>67</v>
       </c>
-      <c r="AAL6" t="s" s="2902">
+      <c r="AAK6" t="s" s="2937">
         <v>68</v>
       </c>
-      <c r="AAM6" t="s" s="2903">
+      <c r="AAL6" t="s" s="2938">
         <v>69</v>
       </c>
-      <c r="AAN6" t="s" s="2904">
+      <c r="AAM6" t="s" s="2939">
         <v>70</v>
       </c>
-      <c r="AAO6" t="s" s="2905">
+      <c r="AAN6" t="s" s="2940">
         <v>71</v>
       </c>
-      <c r="AAP6" t="s" s="2906">
+      <c r="AAO6" t="s" s="2941">
         <v>72</v>
       </c>
-      <c r="AAQ6" t="s" s="2907">
+      <c r="AAP6" t="s" s="2942">
         <v>73</v>
       </c>
-      <c r="AAR6" t="s" s="2908">
+      <c r="AAQ6" t="s" s="2943">
         <v>74</v>
       </c>
-      <c r="AAS6" t="s" s="2909">
+      <c r="AAR6" t="s" s="2944">
         <v>75</v>
       </c>
-      <c r="AAT6" t="s" s="2910">
+      <c r="AAS6" t="s" s="2945">
         <v>76</v>
+      </c>
+      <c r="AAT6" t="s" s="2946">
+        <v>77</v>
+      </c>
+      <c r="AAU6" t="s" s="2947">
+        <v>66</v>
+      </c>
+      <c r="AAV6" t="s" s="2948">
+        <v>67</v>
+      </c>
+      <c r="AAW6" t="s" s="2949">
+        <v>68</v>
+      </c>
+      <c r="AAX6" t="s" s="2950">
+        <v>69</v>
+      </c>
+      <c r="AAY6" t="s" s="2951">
+        <v>70</v>
+      </c>
+      <c r="AAZ6" t="s" s="2952">
+        <v>71</v>
+      </c>
+      <c r="ABA6" t="s" s="2953">
+        <v>72</v>
+      </c>
+      <c r="ABB6" t="s" s="2954">
+        <v>73</v>
+      </c>
+      <c r="ABC6" t="s" s="2955">
+        <v>74</v>
+      </c>
+      <c r="ABD6" t="s" s="2956">
+        <v>75</v>
+      </c>
+      <c r="ABE6" t="s" s="2957">
+        <v>76</v>
+      </c>
+      <c r="ABF6" t="s" s="2958">
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s" s="13">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" t="n" s="10">
         <v>52.4</v>
@@ -17663,16 +17908,52 @@
       <c r="AAS7" t="n" s="10">
         <v>119.5</v>
       </c>
-      <c r="AAT7" t="s" s="10">
-        <v>79</v>
+      <c r="AAT7" t="n" s="10">
+        <v>120.2</v>
+      </c>
+      <c r="AAU7" t="n" s="10">
+        <v>124.6</v>
+      </c>
+      <c r="AAV7" t="n" s="10">
+        <v>125.0</v>
+      </c>
+      <c r="AAW7" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAX7" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAY7" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAZ7" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="ABA7" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="ABB7" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="ABC7" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="ABD7" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="ABE7" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="ABF7" t="s" s="10">
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s" s="13">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" t="n" s="10">
         <v>8.9</v>
@@ -19831,25 +20112,61 @@
       <c r="AAS8" t="n" s="10">
         <v>161.3</v>
       </c>
-      <c r="AAT8" t="s" s="10">
-        <v>79</v>
+      <c r="AAT8" t="n" s="10">
+        <v>151.1</v>
+      </c>
+      <c r="AAU8" t="n" s="10">
+        <v>168.3</v>
+      </c>
+      <c r="AAV8" t="n" s="10">
+        <v>192.1</v>
+      </c>
+      <c r="AAW8" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAX8" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAY8" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAZ8" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="ABA8" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="ABB8" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="ABC8" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="ABD8" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="ABE8" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="ABF8" t="s" s="10">
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="12">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:AAT2"/>
-    <mergeCell ref="A3:AAT3"/>
-    <mergeCell ref="A4:AAT4"/>
+    <mergeCell ref="A2:ABF2"/>
+    <mergeCell ref="A3:ABF3"/>
+    <mergeCell ref="A4:ABF4"/>
     <mergeCell ref="A5:B6"/>
     <mergeCell ref="C5:N5"/>
     <mergeCell ref="O5:Z5"/>
@@ -19911,11 +20228,12 @@
     <mergeCell ref="ZK5:ZV5"/>
     <mergeCell ref="ZW5:AAH5"/>
     <mergeCell ref="AAI5:AAT5"/>
-    <mergeCell ref="A1:AAT1"/>
+    <mergeCell ref="AAU5:ABF5"/>
+    <mergeCell ref="A1:ABF1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:33:59&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 04:09:45&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>